--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 10.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="55">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -49,16 +49,7 @@
     <t>Weekly MAPE</t>
   </si>
   <si>
-    <t>2020-12-19</t>
-  </si>
-  <si>
-    <t>03 May -- 09 May 2020</t>
-  </si>
-  <si>
-    <t>10 May -- 16 May 2020</t>
-  </si>
-  <si>
-    <t>17 May -- 23 May 2020</t>
+    <t>2021-01-02</t>
   </si>
   <si>
     <t>24 May -- 30 May 2020</t>
@@ -179,6 +170,12 @@
   </si>
   <si>
     <t>21 Feb -- 27 Feb 2021</t>
+  </si>
+  <si>
+    <t>28 Feb -- 06 Mar 2021</t>
+  </si>
+  <si>
+    <t>07 Mar -- 13 Mar 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -539,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -588,25 +585,25 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>1753.71</v>
+        <v>946.14</v>
       </c>
       <c r="D2">
-        <v>1753.71</v>
+        <v>946.14</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G2">
-        <v>1.2</v>
+        <v>1.11</v>
       </c>
       <c r="H2">
-        <v>72.34999999999999</v>
+        <v>69.8</v>
       </c>
       <c r="I2">
-        <v>1886.86</v>
+        <v>1822.4</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -617,16 +614,16 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>1426.86</v>
+        <v>873.71</v>
       </c>
       <c r="D3">
-        <v>1426.86</v>
+        <v>873.71</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -637,16 +634,16 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>1220.57</v>
+        <v>744.29</v>
       </c>
       <c r="D4">
-        <v>1220.57</v>
+        <v>744.29</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -657,16 +654,16 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>946.14</v>
+        <v>602.14</v>
       </c>
       <c r="D5">
-        <v>946.14</v>
+        <v>602.14</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -677,16 +674,16 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>873.71</v>
+        <v>565.86</v>
       </c>
       <c r="D6">
-        <v>873.71</v>
+        <v>565.86</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -697,16 +694,16 @@
         <v>17</v>
       </c>
       <c r="C7">
-        <v>744.29</v>
+        <v>524.14</v>
       </c>
       <c r="D7">
-        <v>744.29</v>
+        <v>524.14</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -717,16 +714,16 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>602.14</v>
+        <v>748.86</v>
       </c>
       <c r="D8">
-        <v>602.14</v>
+        <v>748.86</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -737,16 +734,16 @@
         <v>19</v>
       </c>
       <c r="C9">
-        <v>565.86</v>
+        <v>786.29</v>
       </c>
       <c r="D9">
-        <v>565.86</v>
+        <v>786.29</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -757,16 +754,16 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>524.14</v>
+        <v>922</v>
       </c>
       <c r="D10">
-        <v>524.14</v>
+        <v>922</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -777,16 +774,16 @@
         <v>21</v>
       </c>
       <c r="C11">
-        <v>748.86</v>
+        <v>1140.43</v>
       </c>
       <c r="D11">
-        <v>748.86</v>
+        <v>1140.43</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -797,16 +794,16 @@
         <v>22</v>
       </c>
       <c r="C12">
-        <v>786.29</v>
+        <v>1038.43</v>
       </c>
       <c r="D12">
-        <v>786.29</v>
+        <v>1038.43</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -817,16 +814,16 @@
         <v>23</v>
       </c>
       <c r="C13">
-        <v>922</v>
+        <v>1007.43</v>
       </c>
       <c r="D13">
-        <v>922</v>
+        <v>1007.43</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -837,16 +834,16 @@
         <v>24</v>
       </c>
       <c r="C14">
-        <v>1140.43</v>
+        <v>973.4299999999999</v>
       </c>
       <c r="D14">
-        <v>1140.43</v>
+        <v>973.4299999999999</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -857,16 +854,16 @@
         <v>25</v>
       </c>
       <c r="C15">
-        <v>1038.43</v>
+        <v>894.5700000000001</v>
       </c>
       <c r="D15">
-        <v>1038.43</v>
+        <v>894.5700000000001</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -877,16 +874,16 @@
         <v>26</v>
       </c>
       <c r="C16">
-        <v>1007.43</v>
+        <v>846.4299999999999</v>
       </c>
       <c r="D16">
-        <v>1007.43</v>
+        <v>846.4299999999999</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -897,16 +894,16 @@
         <v>27</v>
       </c>
       <c r="C17">
-        <v>973.4299999999999</v>
+        <v>733.14</v>
       </c>
       <c r="D17">
-        <v>973.4299999999999</v>
+        <v>733.14</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -917,16 +914,16 @@
         <v>28</v>
       </c>
       <c r="C18">
-        <v>894.5700000000001</v>
+        <v>797.86</v>
       </c>
       <c r="D18">
-        <v>894.5700000000001</v>
+        <v>797.86</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -937,16 +934,16 @@
         <v>29</v>
       </c>
       <c r="C19">
-        <v>846.4299999999999</v>
+        <v>766.4299999999999</v>
       </c>
       <c r="D19">
-        <v>846.4299999999999</v>
+        <v>766.4299999999999</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -957,16 +954,16 @@
         <v>30</v>
       </c>
       <c r="C20">
-        <v>733.14</v>
+        <v>702.14</v>
       </c>
       <c r="D20">
-        <v>733.14</v>
+        <v>702.14</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -977,16 +974,16 @@
         <v>31</v>
       </c>
       <c r="C21">
-        <v>797.86</v>
+        <v>714.29</v>
       </c>
       <c r="D21">
-        <v>797.86</v>
+        <v>714.29</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -997,16 +994,16 @@
         <v>32</v>
       </c>
       <c r="C22">
-        <v>766.4299999999999</v>
+        <v>717.4299999999999</v>
       </c>
       <c r="D22">
-        <v>766.4299999999999</v>
+        <v>717.4299999999999</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1017,16 +1014,16 @@
         <v>33</v>
       </c>
       <c r="C23">
-        <v>702.14</v>
+        <v>821.5700000000001</v>
       </c>
       <c r="D23">
-        <v>702.14</v>
+        <v>821.5700000000001</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1037,16 +1034,16 @@
         <v>34</v>
       </c>
       <c r="C24">
-        <v>714.29</v>
+        <v>819</v>
       </c>
       <c r="D24">
-        <v>714.29</v>
+        <v>819</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1057,16 +1054,16 @@
         <v>35</v>
       </c>
       <c r="C25">
-        <v>717.4299999999999</v>
+        <v>994.86</v>
       </c>
       <c r="D25">
-        <v>717.4299999999999</v>
+        <v>784.0599999999999</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>210.8</v>
       </c>
       <c r="F25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1077,16 +1074,16 @@
         <v>36</v>
       </c>
       <c r="C26">
-        <v>821.5700000000001</v>
+        <v>1087.29</v>
       </c>
       <c r="D26">
-        <v>744.52</v>
+        <v>780.42</v>
       </c>
       <c r="E26">
-        <v>77.05</v>
+        <v>306.86</v>
       </c>
       <c r="F26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1097,16 +1094,16 @@
         <v>37</v>
       </c>
       <c r="C27">
-        <v>819</v>
+        <v>1466.29</v>
       </c>
       <c r="D27">
-        <v>791.53</v>
+        <v>765.12</v>
       </c>
       <c r="E27">
-        <v>27.47</v>
+        <v>701.16</v>
       </c>
       <c r="F27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1117,16 +1114,16 @@
         <v>38</v>
       </c>
       <c r="C28">
-        <v>994.86</v>
+        <v>1447.14</v>
       </c>
       <c r="D28">
-        <v>931.05</v>
+        <v>780.11</v>
       </c>
       <c r="E28">
-        <v>63.81</v>
+        <v>667.03</v>
       </c>
       <c r="F28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1137,16 +1134,16 @@
         <v>39</v>
       </c>
       <c r="C29">
-        <v>1087.29</v>
+        <v>2150.29</v>
       </c>
       <c r="D29">
-        <v>833.63</v>
+        <v>779.5700000000001</v>
       </c>
       <c r="E29">
-        <v>253.66</v>
+        <v>1370.72</v>
       </c>
       <c r="F29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1157,16 +1154,16 @@
         <v>40</v>
       </c>
       <c r="C30">
-        <v>1466.29</v>
+        <v>2383.14</v>
       </c>
       <c r="D30">
-        <v>744.03</v>
+        <v>782.87</v>
       </c>
       <c r="E30">
-        <v>722.25</v>
+        <v>1600.27</v>
       </c>
       <c r="F30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1177,16 +1174,16 @@
         <v>41</v>
       </c>
       <c r="C31">
-        <v>1447.14</v>
+        <v>2607.86</v>
       </c>
       <c r="D31">
-        <v>849.27</v>
+        <v>784.08</v>
       </c>
       <c r="E31">
-        <v>597.87</v>
+        <v>1823.77</v>
       </c>
       <c r="F31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1197,19 +1194,19 @@
         <v>42</v>
       </c>
       <c r="C32">
-        <v>2150.29</v>
+        <v>2250</v>
       </c>
       <c r="D32">
-        <v>749.3</v>
+        <v>779.83</v>
       </c>
       <c r="E32">
-        <v>1400.98</v>
+        <v>1470.17</v>
       </c>
       <c r="F32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -1217,91 +1214,61 @@
         <v>43</v>
       </c>
       <c r="C33">
-        <v>2383.14</v>
+        <v>2611</v>
       </c>
       <c r="D33">
-        <v>727.12</v>
+        <v>780.08</v>
       </c>
       <c r="E33">
-        <v>1656.03</v>
+        <v>1830.92</v>
       </c>
       <c r="F33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>11</v>
       </c>
       <c r="B34" t="s">
         <v>44</v>
       </c>
-      <c r="C34">
-        <v>2607.86</v>
-      </c>
       <c r="D34">
-        <v>721</v>
-      </c>
-      <c r="E34">
-        <v>1886.86</v>
+        <v>779.9</v>
       </c>
       <c r="F34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>11</v>
       </c>
       <c r="B35" t="s">
         <v>45</v>
       </c>
-      <c r="C35">
-        <v>2250</v>
-      </c>
       <c r="D35">
-        <v>821.3200000000001</v>
-      </c>
-      <c r="E35">
-        <v>1428.68</v>
+        <v>795.8</v>
       </c>
       <c r="F35" t="s">
-        <v>55</v>
-      </c>
-      <c r="J35">
-        <v>1428.68</v>
-      </c>
-      <c r="K35">
-        <v>63.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>11</v>
       </c>
       <c r="B36" t="s">
         <v>46</v>
       </c>
-      <c r="C36">
-        <v>2611</v>
-      </c>
       <c r="D36">
-        <v>810.66</v>
-      </c>
-      <c r="E36">
-        <v>1800.34</v>
+        <v>837.9</v>
       </c>
       <c r="F36" t="s">
-        <v>55</v>
-      </c>
-      <c r="J36">
-        <v>1614.51</v>
-      </c>
-      <c r="K36">
-        <v>66.22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -1309,13 +1276,13 @@
         <v>47</v>
       </c>
       <c r="D37">
-        <v>841.13</v>
+        <v>888.22</v>
       </c>
       <c r="F37" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -1323,13 +1290,13 @@
         <v>48</v>
       </c>
       <c r="D38">
-        <v>854.72</v>
+        <v>917.84</v>
       </c>
       <c r="F38" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -1337,13 +1304,13 @@
         <v>49</v>
       </c>
       <c r="D39">
-        <v>873.89</v>
+        <v>993.73</v>
       </c>
       <c r="F39" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -1351,13 +1318,13 @@
         <v>50</v>
       </c>
       <c r="D40">
-        <v>898.25</v>
+        <v>1108.36</v>
       </c>
       <c r="F40" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -1365,13 +1332,13 @@
         <v>51</v>
       </c>
       <c r="D41">
-        <v>914.21</v>
+        <v>1187.38</v>
       </c>
       <c r="F41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -1379,13 +1346,13 @@
         <v>52</v>
       </c>
       <c r="D42">
-        <v>1001.97</v>
+        <v>904.02</v>
       </c>
       <c r="F42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -1393,24 +1360,10 @@
         <v>53</v>
       </c>
       <c r="D43">
-        <v>1707.62</v>
+        <v>934.7</v>
       </c>
       <c r="F43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" t="s">
-        <v>11</v>
-      </c>
-      <c r="B44" t="s">
-        <v>54</v>
-      </c>
-      <c r="D44">
-        <v>1647.52</v>
-      </c>
-      <c r="F44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 10.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="62">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -49,9 +49,27 @@
     <t>Weekly MAPE</t>
   </si>
   <si>
+    <t>2020-12-19</t>
+  </si>
+  <si>
+    <t>2020-12-26</t>
+  </si>
+  <si>
     <t>2021-01-02</t>
   </si>
   <si>
+    <t>2021-01-09</t>
+  </si>
+  <si>
+    <t>03 May -- 09 May 2020</t>
+  </si>
+  <si>
+    <t>10 May -- 16 May 2020</t>
+  </si>
+  <si>
+    <t>17 May -- 23 May 2020</t>
+  </si>
+  <si>
     <t>24 May -- 30 May 2020</t>
   </si>
   <si>
@@ -176,6 +194,9 @@
   </si>
   <si>
     <t>07 Mar -- 13 Mar 2021</t>
+  </si>
+  <si>
+    <t>14 Mar -- 20 Mar 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -536,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,28 +603,28 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2">
-        <v>946.14</v>
+        <v>1753.71</v>
       </c>
       <c r="D2">
-        <v>946.14</v>
+        <v>1753.71</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G2">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="H2">
-        <v>69.8</v>
+        <v>72.34999999999999</v>
       </c>
       <c r="I2">
-        <v>1822.4</v>
+        <v>1886.86</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -611,19 +632,19 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>873.71</v>
+        <v>1426.86</v>
       </c>
       <c r="D3">
-        <v>873.71</v>
+        <v>1426.86</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -631,19 +652,19 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4">
-        <v>744.29</v>
+        <v>1220.57</v>
       </c>
       <c r="D4">
-        <v>744.29</v>
+        <v>1220.57</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -651,19 +672,19 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5">
-        <v>602.14</v>
+        <v>946.14</v>
       </c>
       <c r="D5">
-        <v>602.14</v>
+        <v>946.14</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -671,19 +692,19 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C6">
-        <v>565.86</v>
+        <v>873.71</v>
       </c>
       <c r="D6">
-        <v>565.86</v>
+        <v>873.71</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -691,19 +712,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C7">
-        <v>524.14</v>
+        <v>744.29</v>
       </c>
       <c r="D7">
-        <v>524.14</v>
+        <v>744.29</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -711,19 +732,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C8">
-        <v>748.86</v>
+        <v>602.14</v>
       </c>
       <c r="D8">
-        <v>748.86</v>
+        <v>602.14</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -731,19 +752,19 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C9">
-        <v>786.29</v>
+        <v>565.86</v>
       </c>
       <c r="D9">
-        <v>786.29</v>
+        <v>565.86</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,19 +772,19 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>922</v>
+        <v>524.14</v>
       </c>
       <c r="D10">
-        <v>922</v>
+        <v>524.14</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -771,19 +792,19 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C11">
-        <v>1140.43</v>
+        <v>748.86</v>
       </c>
       <c r="D11">
-        <v>1140.43</v>
+        <v>748.86</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -791,19 +812,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C12">
-        <v>1038.43</v>
+        <v>786.29</v>
       </c>
       <c r="D12">
-        <v>1038.43</v>
+        <v>786.29</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -811,19 +832,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13">
-        <v>1007.43</v>
+        <v>922</v>
       </c>
       <c r="D13">
-        <v>1007.43</v>
+        <v>922</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -831,19 +852,19 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C14">
-        <v>973.4299999999999</v>
+        <v>1140.43</v>
       </c>
       <c r="D14">
-        <v>973.4299999999999</v>
+        <v>1140.43</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -851,19 +872,19 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C15">
-        <v>894.5700000000001</v>
+        <v>1038.43</v>
       </c>
       <c r="D15">
-        <v>894.5700000000001</v>
+        <v>1038.43</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -871,19 +892,19 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C16">
-        <v>846.4299999999999</v>
+        <v>1007.43</v>
       </c>
       <c r="D16">
-        <v>846.4299999999999</v>
+        <v>1007.43</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -891,19 +912,19 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C17">
-        <v>733.14</v>
+        <v>973.4299999999999</v>
       </c>
       <c r="D17">
-        <v>733.14</v>
+        <v>973.4299999999999</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -911,19 +932,19 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C18">
-        <v>797.86</v>
+        <v>894.5700000000001</v>
       </c>
       <c r="D18">
-        <v>797.86</v>
+        <v>894.5700000000001</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -931,19 +952,19 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C19">
-        <v>766.4299999999999</v>
+        <v>846.4299999999999</v>
       </c>
       <c r="D19">
-        <v>766.4299999999999</v>
+        <v>846.4299999999999</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -951,19 +972,19 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C20">
-        <v>702.14</v>
+        <v>733.14</v>
       </c>
       <c r="D20">
-        <v>702.14</v>
+        <v>733.14</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -971,19 +992,19 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C21">
-        <v>714.29</v>
+        <v>797.86</v>
       </c>
       <c r="D21">
-        <v>714.29</v>
+        <v>797.86</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -991,19 +1012,19 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C22">
-        <v>717.4299999999999</v>
+        <v>766.4299999999999</v>
       </c>
       <c r="D22">
-        <v>717.4299999999999</v>
+        <v>766.4299999999999</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1011,19 +1032,19 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C23">
-        <v>821.5700000000001</v>
+        <v>702.14</v>
       </c>
       <c r="D23">
-        <v>821.5700000000001</v>
+        <v>702.14</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1031,19 +1052,19 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C24">
-        <v>819</v>
+        <v>714.29</v>
       </c>
       <c r="D24">
-        <v>819</v>
+        <v>714.29</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1051,19 +1072,19 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C25">
-        <v>994.86</v>
+        <v>717.4299999999999</v>
       </c>
       <c r="D25">
-        <v>784.0599999999999</v>
+        <v>717.4299999999999</v>
       </c>
       <c r="E25">
-        <v>210.8</v>
+        <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1071,19 +1092,19 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C26">
-        <v>1087.29</v>
+        <v>821.5700000000001</v>
       </c>
       <c r="D26">
-        <v>780.42</v>
+        <v>744.52</v>
       </c>
       <c r="E26">
-        <v>306.86</v>
+        <v>77.05</v>
       </c>
       <c r="F26" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1091,19 +1112,19 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C27">
-        <v>1466.29</v>
+        <v>819</v>
       </c>
       <c r="D27">
-        <v>765.12</v>
+        <v>791.53</v>
       </c>
       <c r="E27">
-        <v>701.16</v>
+        <v>27.47</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1111,19 +1132,19 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C28">
-        <v>1447.14</v>
+        <v>994.86</v>
       </c>
       <c r="D28">
-        <v>780.11</v>
+        <v>931.05</v>
       </c>
       <c r="E28">
-        <v>667.03</v>
+        <v>63.81</v>
       </c>
       <c r="F28" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1131,19 +1152,19 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C29">
-        <v>2150.29</v>
+        <v>1087.29</v>
       </c>
       <c r="D29">
-        <v>779.5700000000001</v>
+        <v>833.63</v>
       </c>
       <c r="E29">
-        <v>1370.72</v>
+        <v>253.66</v>
       </c>
       <c r="F29" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1151,19 +1172,19 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C30">
-        <v>2383.14</v>
+        <v>1466.29</v>
       </c>
       <c r="D30">
-        <v>782.87</v>
+        <v>744.03</v>
       </c>
       <c r="E30">
-        <v>1600.27</v>
+        <v>722.25</v>
       </c>
       <c r="F30" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1171,19 +1192,19 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C31">
-        <v>2607.86</v>
+        <v>1447.14</v>
       </c>
       <c r="D31">
-        <v>784.08</v>
+        <v>849.27</v>
       </c>
       <c r="E31">
-        <v>1823.77</v>
+        <v>597.87</v>
       </c>
       <c r="F31" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1191,179 +1212,766 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C32">
-        <v>2250</v>
+        <v>2150.29</v>
       </c>
       <c r="D32">
-        <v>779.83</v>
+        <v>749.3</v>
       </c>
       <c r="E32">
-        <v>1470.17</v>
+        <v>1400.98</v>
       </c>
       <c r="F32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33">
+        <v>2383.14</v>
+      </c>
+      <c r="D33">
+        <v>727.12</v>
+      </c>
+      <c r="E33">
+        <v>1656.03</v>
+      </c>
+      <c r="F33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34">
+        <v>2607.86</v>
+      </c>
+      <c r="D34">
+        <v>721</v>
+      </c>
+      <c r="E34">
+        <v>1886.86</v>
+      </c>
+      <c r="F34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35">
+        <v>2243.29</v>
+      </c>
+      <c r="D35">
+        <v>821.3200000000001</v>
+      </c>
+      <c r="E35">
+        <v>1421.97</v>
+      </c>
+      <c r="F35" t="s">
+        <v>61</v>
+      </c>
+      <c r="J35">
+        <v>1421.97</v>
+      </c>
+      <c r="K35">
+        <v>63.39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36">
+        <v>2604.14</v>
+      </c>
+      <c r="D36">
+        <v>810.66</v>
+      </c>
+      <c r="E36">
+        <v>1793.48</v>
+      </c>
+      <c r="F36" t="s">
+        <v>61</v>
+      </c>
+      <c r="J36">
+        <v>1607.72</v>
+      </c>
+      <c r="K36">
+        <v>66.13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37">
+        <v>3174.14</v>
+      </c>
+      <c r="D37">
+        <v>841.13</v>
+      </c>
+      <c r="E37">
+        <v>2333.01</v>
+      </c>
+      <c r="F37" t="s">
+        <v>61</v>
+      </c>
+      <c r="J37">
+        <v>1849.49</v>
+      </c>
+      <c r="K37">
+        <v>68.59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38">
+        <v>3333.57</v>
+      </c>
+      <c r="D38">
+        <v>854.72</v>
+      </c>
+      <c r="E38">
+        <v>2478.85</v>
+      </c>
+      <c r="F38" t="s">
+        <v>61</v>
+      </c>
+      <c r="J38">
+        <v>2006.83</v>
+      </c>
+      <c r="K38">
+        <v>70.03</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39">
+        <v>873.89</v>
+      </c>
+      <c r="F39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40">
+        <v>898.25</v>
+      </c>
+      <c r="F40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33">
-        <v>2611</v>
-      </c>
-      <c r="D33">
-        <v>780.08</v>
-      </c>
-      <c r="E33">
-        <v>1830.92</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="D41">
+        <v>914.21</v>
+      </c>
+      <c r="F41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42">
+        <v>1001.97</v>
+      </c>
+      <c r="F42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43">
+        <v>1707.62</v>
+      </c>
+      <c r="F43" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44">
+        <v>1647.52</v>
+      </c>
+      <c r="F44" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45">
+        <v>2604.14</v>
+      </c>
+      <c r="D45">
+        <v>953.02</v>
+      </c>
+      <c r="E45">
+        <v>1651.13</v>
+      </c>
+      <c r="F45" t="s">
+        <v>61</v>
+      </c>
+      <c r="G45">
+        <v>1.21</v>
+      </c>
+      <c r="H45">
+        <v>66.75</v>
+      </c>
+      <c r="I45">
+        <v>1497.31</v>
+      </c>
+      <c r="J45">
+        <v>1935.69</v>
+      </c>
+      <c r="K45">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46">
+        <v>3174.14</v>
+      </c>
+      <c r="D46">
+        <v>922.84</v>
+      </c>
+      <c r="E46">
+        <v>2251.31</v>
+      </c>
+      <c r="F46" t="s">
+        <v>61</v>
+      </c>
+      <c r="J46">
+        <v>1988.29</v>
+      </c>
+      <c r="K46">
+        <v>69.06999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47">
+        <v>3333.57</v>
+      </c>
+      <c r="D47">
+        <v>854.67</v>
+      </c>
+      <c r="E47">
+        <v>2478.9</v>
+      </c>
+      <c r="F47" t="s">
+        <v>61</v>
+      </c>
+      <c r="J47">
+        <v>2058.38</v>
+      </c>
+      <c r="K47">
+        <v>69.83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48">
+        <v>813.87</v>
+      </c>
+      <c r="F48" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49">
+        <v>796.61</v>
+      </c>
+      <c r="F49" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34">
-        <v>779.9</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="D50">
+        <v>786.97</v>
+      </c>
+      <c r="F50" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51">
+        <v>1022.85</v>
+      </c>
+      <c r="F51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52">
+        <v>772.28</v>
+      </c>
+      <c r="F52" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53">
+        <v>767.64</v>
+      </c>
+      <c r="F53" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54">
+        <v>753.39</v>
+      </c>
+      <c r="F54" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55">
+        <v>3174.14</v>
+      </c>
+      <c r="D55">
+        <v>806.17</v>
+      </c>
+      <c r="E55">
+        <v>2367.97</v>
+      </c>
+      <c r="F55" t="s">
+        <v>61</v>
+      </c>
+      <c r="G55">
+        <v>1.11</v>
+      </c>
+      <c r="H55">
+        <v>69.8</v>
+      </c>
+      <c r="I55">
+        <v>1822.4</v>
+      </c>
+      <c r="J55">
+        <v>2097.08</v>
+      </c>
+      <c r="K55">
+        <v>70.43000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56">
+        <v>3333.57</v>
+      </c>
+      <c r="D56">
+        <v>822.76</v>
+      </c>
+      <c r="E56">
+        <v>2510.82</v>
+      </c>
+      <c r="F56" t="s">
+        <v>61</v>
+      </c>
+      <c r="J56">
+        <v>2143.05</v>
+      </c>
+      <c r="K56">
+        <v>70.97</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" t="s">
+        <v>52</v>
+      </c>
+      <c r="D57">
+        <v>848.76</v>
+      </c>
+      <c r="F57" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" t="s">
+        <v>53</v>
+      </c>
+      <c r="D58">
+        <v>888.7</v>
+      </c>
+      <c r="F58" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35">
-        <v>795.8</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="D59">
+        <v>918.3200000000001</v>
+      </c>
+      <c r="F59" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" t="s">
+        <v>55</v>
+      </c>
+      <c r="D60">
+        <v>994.24</v>
+      </c>
+      <c r="F60" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" t="s">
+        <v>56</v>
+      </c>
+      <c r="D61">
+        <v>1108.81</v>
+      </c>
+      <c r="F61" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" t="s">
+        <v>57</v>
+      </c>
+      <c r="D62">
+        <v>1187.54</v>
+      </c>
+      <c r="F62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63" t="s">
+        <v>58</v>
+      </c>
+      <c r="D63">
+        <v>903.4</v>
+      </c>
+      <c r="F63" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" t="s">
+        <v>59</v>
+      </c>
+      <c r="D64">
+        <v>935.22</v>
+      </c>
+      <c r="F64" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" t="s">
+        <v>51</v>
+      </c>
+      <c r="C65">
+        <v>3333.57</v>
+      </c>
+      <c r="D65">
+        <v>1033.16</v>
+      </c>
+      <c r="E65">
+        <v>2300.41</v>
+      </c>
+      <c r="F65" t="s">
+        <v>61</v>
+      </c>
+      <c r="G65">
+        <v>0.96</v>
+      </c>
+      <c r="H65">
+        <v>68.37</v>
+      </c>
+      <c r="I65">
+        <v>2170.25</v>
+      </c>
+      <c r="J65">
+        <v>2158.78</v>
+      </c>
+      <c r="K65">
+        <v>70.77</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" t="s">
+        <v>52</v>
+      </c>
+      <c r="D66">
+        <v>1049.43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67" t="s">
+        <v>53</v>
+      </c>
+      <c r="D67">
+        <v>874.74</v>
+      </c>
+      <c r="F67" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36">
-        <v>837.9</v>
-      </c>
-      <c r="F36" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D37">
-        <v>888.22</v>
-      </c>
-      <c r="F37" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38">
-        <v>917.84</v>
-      </c>
-      <c r="F38" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" t="s">
-        <v>49</v>
-      </c>
-      <c r="D39">
-        <v>993.73</v>
-      </c>
-      <c r="F39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" t="s">
-        <v>50</v>
-      </c>
-      <c r="D40">
-        <v>1108.36</v>
-      </c>
-      <c r="F40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41" t="s">
-        <v>51</v>
-      </c>
-      <c r="D41">
-        <v>1187.38</v>
-      </c>
-      <c r="F41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42" t="s">
-        <v>52</v>
-      </c>
-      <c r="D42">
-        <v>904.02</v>
-      </c>
-      <c r="F42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" t="s">
-        <v>11</v>
-      </c>
-      <c r="B43" t="s">
-        <v>53</v>
-      </c>
-      <c r="D43">
-        <v>934.7</v>
-      </c>
-      <c r="F43" t="s">
-        <v>54</v>
+      <c r="D68">
+        <v>771.86</v>
+      </c>
+      <c r="F68" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" t="s">
+        <v>14</v>
+      </c>
+      <c r="B69" t="s">
+        <v>55</v>
+      </c>
+      <c r="D69">
+        <v>821.02</v>
+      </c>
+      <c r="F69" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70" t="s">
+        <v>56</v>
+      </c>
+      <c r="D70">
+        <v>816.24</v>
+      </c>
+      <c r="F70" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" t="s">
+        <v>57</v>
+      </c>
+      <c r="D71">
+        <v>1062.92</v>
+      </c>
+      <c r="F71" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" t="s">
+        <v>14</v>
+      </c>
+      <c r="B72" t="s">
+        <v>58</v>
+      </c>
+      <c r="D72">
+        <v>1051.94</v>
+      </c>
+      <c r="F72" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" t="s">
+        <v>14</v>
+      </c>
+      <c r="B73" t="s">
+        <v>59</v>
+      </c>
+      <c r="D73">
+        <v>778.59</v>
+      </c>
+      <c r="F73" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74" t="s">
+        <v>60</v>
+      </c>
+      <c r="D74">
+        <v>859.84</v>
+      </c>
+      <c r="F74" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 10.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="62">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -557,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K74"/>
+  <dimension ref="A1:K84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1974,6 +1974,158 @@
         <v>61</v>
       </c>
     </row>
+    <row r="75" spans="1:11">
+      <c r="A75" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75" t="s">
+        <v>51</v>
+      </c>
+      <c r="C75">
+        <v>3333.57</v>
+      </c>
+      <c r="D75">
+        <v>1033.16</v>
+      </c>
+      <c r="E75">
+        <v>2300.41</v>
+      </c>
+      <c r="F75" t="s">
+        <v>61</v>
+      </c>
+      <c r="J75">
+        <v>2171.66</v>
+      </c>
+      <c r="K75">
+        <v>70.61</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76" t="s">
+        <v>52</v>
+      </c>
+      <c r="D76">
+        <v>1049.43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77" t="s">
+        <v>53</v>
+      </c>
+      <c r="D77">
+        <v>874.74</v>
+      </c>
+      <c r="F77" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" t="s">
+        <v>14</v>
+      </c>
+      <c r="B78" t="s">
+        <v>54</v>
+      </c>
+      <c r="D78">
+        <v>771.86</v>
+      </c>
+      <c r="F78" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" t="s">
+        <v>14</v>
+      </c>
+      <c r="B79" t="s">
+        <v>55</v>
+      </c>
+      <c r="D79">
+        <v>821.02</v>
+      </c>
+      <c r="F79" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" t="s">
+        <v>14</v>
+      </c>
+      <c r="B80" t="s">
+        <v>56</v>
+      </c>
+      <c r="D80">
+        <v>816.24</v>
+      </c>
+      <c r="F80" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81" t="s">
+        <v>57</v>
+      </c>
+      <c r="D81">
+        <v>1062.92</v>
+      </c>
+      <c r="F81" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>14</v>
+      </c>
+      <c r="B82" t="s">
+        <v>58</v>
+      </c>
+      <c r="D82">
+        <v>1051.94</v>
+      </c>
+      <c r="F82" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>14</v>
+      </c>
+      <c r="B83" t="s">
+        <v>59</v>
+      </c>
+      <c r="D83">
+        <v>778.59</v>
+      </c>
+      <c r="F83" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>14</v>
+      </c>
+      <c r="B84" t="s">
+        <v>60</v>
+      </c>
+      <c r="D84">
+        <v>859.84</v>
+      </c>
+      <c r="F84" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 10.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="64">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -61,6 +61,9 @@
     <t>2021-01-09</t>
   </si>
   <si>
+    <t>2021-01-16</t>
+  </si>
+  <si>
     <t>03 May -- 09 May 2020</t>
   </si>
   <si>
@@ -197,6 +200,9 @@
   </si>
   <si>
     <t>14 Mar -- 20 Mar 2021</t>
+  </si>
+  <si>
+    <t>21 Mar -- 27 Mar 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -557,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K84"/>
+  <dimension ref="A1:K94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -603,7 +609,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>1753.71</v>
@@ -615,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G2">
         <v>1.2</v>
@@ -632,7 +638,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>1426.86</v>
@@ -644,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -652,7 +658,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>1220.57</v>
@@ -664,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -672,7 +678,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>946.14</v>
@@ -684,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -692,7 +698,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>873.71</v>
@@ -704,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -712,7 +718,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>744.29</v>
@@ -724,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -732,7 +738,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>602.14</v>
@@ -744,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -752,7 +758,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <v>565.86</v>
@@ -764,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -772,7 +778,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>524.14</v>
@@ -784,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -792,7 +798,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11">
         <v>748.86</v>
@@ -804,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -812,7 +818,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <v>786.29</v>
@@ -824,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -832,7 +838,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>922</v>
@@ -844,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -852,7 +858,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>1140.43</v>
@@ -864,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -872,7 +878,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15">
         <v>1038.43</v>
@@ -884,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -892,7 +898,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16">
         <v>1007.43</v>
@@ -904,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -912,7 +918,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17">
         <v>973.4299999999999</v>
@@ -924,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -932,7 +938,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18">
         <v>894.5700000000001</v>
@@ -944,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -952,7 +958,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19">
         <v>846.4299999999999</v>
@@ -964,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -972,7 +978,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20">
         <v>733.14</v>
@@ -984,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -992,7 +998,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>797.86</v>
@@ -1004,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1012,7 +1018,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22">
         <v>766.4299999999999</v>
@@ -1024,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1032,7 +1038,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23">
         <v>702.14</v>
@@ -1044,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1052,7 +1058,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24">
         <v>714.29</v>
@@ -1064,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1072,7 +1078,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25">
         <v>717.4299999999999</v>
@@ -1084,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1092,7 +1098,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26">
         <v>821.5700000000001</v>
@@ -1104,7 +1110,7 @@
         <v>77.05</v>
       </c>
       <c r="F26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1112,7 +1118,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27">
         <v>819</v>
@@ -1124,7 +1130,7 @@
         <v>27.47</v>
       </c>
       <c r="F27" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1132,7 +1138,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28">
         <v>994.86</v>
@@ -1144,7 +1150,7 @@
         <v>63.81</v>
       </c>
       <c r="F28" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1152,7 +1158,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29">
         <v>1087.29</v>
@@ -1164,7 +1170,7 @@
         <v>253.66</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1172,7 +1178,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C30">
         <v>1466.29</v>
@@ -1184,7 +1190,7 @@
         <v>722.25</v>
       </c>
       <c r="F30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1192,7 +1198,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C31">
         <v>1447.14</v>
@@ -1204,7 +1210,7 @@
         <v>597.87</v>
       </c>
       <c r="F31" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1212,7 +1218,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32">
         <v>2150.29</v>
@@ -1224,7 +1230,7 @@
         <v>1400.98</v>
       </c>
       <c r="F32" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1232,7 +1238,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C33">
         <v>2383.14</v>
@@ -1244,7 +1250,7 @@
         <v>1656.03</v>
       </c>
       <c r="F33" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1252,7 +1258,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C34">
         <v>2607.86</v>
@@ -1264,7 +1270,7 @@
         <v>1886.86</v>
       </c>
       <c r="F34" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1272,25 +1278,25 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C35">
-        <v>2243.29</v>
+        <v>2241.86</v>
       </c>
       <c r="D35">
         <v>821.3200000000001</v>
       </c>
       <c r="E35">
-        <v>1421.97</v>
+        <v>1420.54</v>
       </c>
       <c r="F35" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J35">
-        <v>1421.97</v>
+        <v>1420.54</v>
       </c>
       <c r="K35">
-        <v>63.39</v>
+        <v>63.36</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1298,25 +1304,25 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C36">
-        <v>2604.14</v>
+        <v>2604.43</v>
       </c>
       <c r="D36">
         <v>810.66</v>
       </c>
       <c r="E36">
-        <v>1793.48</v>
+        <v>1793.77</v>
       </c>
       <c r="F36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J36">
-        <v>1607.72</v>
+        <v>1607.15</v>
       </c>
       <c r="K36">
-        <v>66.13</v>
+        <v>66.12</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1324,25 +1330,25 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C37">
-        <v>3174.14</v>
+        <v>3172.86</v>
       </c>
       <c r="D37">
         <v>841.13</v>
       </c>
       <c r="E37">
-        <v>2333.01</v>
+        <v>2331.72</v>
       </c>
       <c r="F37" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J37">
-        <v>1849.49</v>
+        <v>1848.68</v>
       </c>
       <c r="K37">
-        <v>68.59</v>
+        <v>68.58</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1350,7 +1356,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C38">
         <v>3333.57</v>
@@ -1362,13 +1368,13 @@
         <v>2478.85</v>
       </c>
       <c r="F38" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J38">
-        <v>2006.83</v>
+        <v>2006.22</v>
       </c>
       <c r="K38">
-        <v>70.03</v>
+        <v>70.02</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1376,13 +1382,13 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D39">
         <v>873.89</v>
       </c>
       <c r="F39" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1390,13 +1396,13 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D40">
         <v>898.25</v>
       </c>
       <c r="F40" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1404,13 +1410,13 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D41">
         <v>914.21</v>
       </c>
       <c r="F41" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1418,13 +1424,13 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D42">
         <v>1001.97</v>
       </c>
       <c r="F42" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1432,13 +1438,13 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D43">
         <v>1707.62</v>
       </c>
       <c r="F43" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1446,13 +1452,13 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D44">
         <v>1647.52</v>
       </c>
       <c r="F44" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1460,19 +1466,19 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C45">
-        <v>2604.14</v>
+        <v>2604.43</v>
       </c>
       <c r="D45">
         <v>953.02</v>
       </c>
       <c r="E45">
-        <v>1651.13</v>
+        <v>1651.41</v>
       </c>
       <c r="F45" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G45">
         <v>1.21</v>
@@ -1484,7 +1490,7 @@
         <v>1497.31</v>
       </c>
       <c r="J45">
-        <v>1935.69</v>
+        <v>1935.26</v>
       </c>
       <c r="K45">
         <v>68.7</v>
@@ -1495,22 +1501,22 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C46">
-        <v>3174.14</v>
+        <v>3172.86</v>
       </c>
       <c r="D46">
         <v>922.84</v>
       </c>
       <c r="E46">
-        <v>2251.31</v>
+        <v>2250.02</v>
       </c>
       <c r="F46" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J46">
-        <v>1988.29</v>
+        <v>1987.72</v>
       </c>
       <c r="K46">
         <v>69.06999999999999</v>
@@ -1521,7 +1527,7 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C47">
         <v>3333.57</v>
@@ -1533,13 +1539,13 @@
         <v>2478.9</v>
       </c>
       <c r="F47" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J47">
-        <v>2058.38</v>
+        <v>2057.89</v>
       </c>
       <c r="K47">
-        <v>69.83</v>
+        <v>69.81999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1547,13 +1553,13 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D48">
         <v>813.87</v>
       </c>
       <c r="F48" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -1561,13 +1567,13 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D49">
         <v>796.61</v>
       </c>
       <c r="F49" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -1575,13 +1581,13 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D50">
         <v>786.97</v>
       </c>
       <c r="F50" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -1589,13 +1595,13 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D51">
         <v>1022.85</v>
       </c>
       <c r="F51" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -1603,13 +1609,13 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D52">
         <v>772.28</v>
       </c>
       <c r="F52" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1617,13 +1623,13 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D53">
         <v>767.64</v>
       </c>
       <c r="F53" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1631,13 +1637,13 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D54">
         <v>753.39</v>
       </c>
       <c r="F54" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1645,19 +1651,19 @@
         <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C55">
-        <v>3174.14</v>
+        <v>3172.86</v>
       </c>
       <c r="D55">
         <v>806.17</v>
       </c>
       <c r="E55">
-        <v>2367.97</v>
+        <v>2366.68</v>
       </c>
       <c r="F55" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G55">
         <v>1.11</v>
@@ -1669,10 +1675,10 @@
         <v>1822.4</v>
       </c>
       <c r="J55">
-        <v>2097.08</v>
+        <v>2096.49</v>
       </c>
       <c r="K55">
-        <v>70.43000000000001</v>
+        <v>70.42</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1680,7 +1686,7 @@
         <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C56">
         <v>3333.57</v>
@@ -1692,13 +1698,13 @@
         <v>2510.82</v>
       </c>
       <c r="F56" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J56">
-        <v>2143.05</v>
+        <v>2142.52</v>
       </c>
       <c r="K56">
-        <v>70.97</v>
+        <v>70.95999999999999</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1706,13 +1712,13 @@
         <v>13</v>
       </c>
       <c r="B57" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D57">
         <v>848.76</v>
       </c>
       <c r="F57" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1720,13 +1726,13 @@
         <v>13</v>
       </c>
       <c r="B58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D58">
         <v>888.7</v>
       </c>
       <c r="F58" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1734,13 +1740,13 @@
         <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D59">
         <v>918.3200000000001</v>
       </c>
       <c r="F59" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1748,13 +1754,13 @@
         <v>13</v>
       </c>
       <c r="B60" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D60">
         <v>994.24</v>
       </c>
       <c r="F60" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1762,13 +1768,13 @@
         <v>13</v>
       </c>
       <c r="B61" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D61">
         <v>1108.81</v>
       </c>
       <c r="F61" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -1776,13 +1782,13 @@
         <v>13</v>
       </c>
       <c r="B62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D62">
         <v>1187.54</v>
       </c>
       <c r="F62" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -1790,13 +1796,13 @@
         <v>13</v>
       </c>
       <c r="B63" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D63">
         <v>903.4</v>
       </c>
       <c r="F63" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -1804,13 +1810,13 @@
         <v>13</v>
       </c>
       <c r="B64" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D64">
         <v>935.22</v>
       </c>
       <c r="F64" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -1818,7 +1824,7 @@
         <v>14</v>
       </c>
       <c r="B65" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C65">
         <v>3333.57</v>
@@ -1830,7 +1836,7 @@
         <v>2300.41</v>
       </c>
       <c r="F65" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G65">
         <v>0.96</v>
@@ -1842,7 +1848,7 @@
         <v>2170.25</v>
       </c>
       <c r="J65">
-        <v>2158.78</v>
+        <v>2158.31</v>
       </c>
       <c r="K65">
         <v>70.77</v>
@@ -1853,13 +1859,13 @@
         <v>14</v>
       </c>
       <c r="B66" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D66">
         <v>1049.43</v>
       </c>
       <c r="F66" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -1867,13 +1873,13 @@
         <v>14</v>
       </c>
       <c r="B67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D67">
         <v>874.74</v>
       </c>
       <c r="F67" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -1881,13 +1887,13 @@
         <v>14</v>
       </c>
       <c r="B68" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D68">
         <v>771.86</v>
       </c>
       <c r="F68" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -1895,13 +1901,13 @@
         <v>14</v>
       </c>
       <c r="B69" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D69">
         <v>821.02</v>
       </c>
       <c r="F69" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -1909,13 +1915,13 @@
         <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D70">
         <v>816.24</v>
       </c>
       <c r="F70" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -1923,13 +1929,13 @@
         <v>14</v>
       </c>
       <c r="B71" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D71">
         <v>1062.92</v>
       </c>
       <c r="F71" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -1937,13 +1943,13 @@
         <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D72">
         <v>1051.94</v>
       </c>
       <c r="F72" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -1951,13 +1957,13 @@
         <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D73">
         <v>778.59</v>
       </c>
       <c r="F73" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -1965,13 +1971,13 @@
         <v>14</v>
       </c>
       <c r="B74" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D74">
         <v>859.84</v>
       </c>
       <c r="F74" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -1979,7 +1985,7 @@
         <v>14</v>
       </c>
       <c r="B75" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C75">
         <v>3333.57</v>
@@ -1991,10 +1997,10 @@
         <v>2300.41</v>
       </c>
       <c r="F75" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J75">
-        <v>2171.66</v>
+        <v>2171.23</v>
       </c>
       <c r="K75">
         <v>70.61</v>
@@ -2005,13 +2011,13 @@
         <v>14</v>
       </c>
       <c r="B76" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D76">
         <v>1049.43</v>
       </c>
       <c r="F76" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -2019,13 +2025,13 @@
         <v>14</v>
       </c>
       <c r="B77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D77">
         <v>874.74</v>
       </c>
       <c r="F77" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -2033,13 +2039,13 @@
         <v>14</v>
       </c>
       <c r="B78" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D78">
         <v>771.86</v>
       </c>
       <c r="F78" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -2047,13 +2053,13 @@
         <v>14</v>
       </c>
       <c r="B79" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D79">
         <v>821.02</v>
       </c>
       <c r="F79" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -2061,69 +2067,218 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D80">
         <v>816.24</v>
       </c>
       <c r="F80" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" t="s">
         <v>14</v>
       </c>
       <c r="B81" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D81">
         <v>1062.92</v>
       </c>
       <c r="F81" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
         <v>14</v>
       </c>
       <c r="B82" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D82">
         <v>1051.94</v>
       </c>
       <c r="F82" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" t="s">
         <v>14</v>
       </c>
       <c r="B83" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D83">
         <v>778.59</v>
       </c>
       <c r="F83" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" t="s">
         <v>14</v>
       </c>
       <c r="B84" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D84">
         <v>859.84</v>
       </c>
       <c r="F84" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" t="s">
+        <v>15</v>
+      </c>
+      <c r="B85" t="s">
+        <v>53</v>
+      </c>
+      <c r="D85">
+        <v>973.3200000000001</v>
+      </c>
+      <c r="F85" t="s">
+        <v>63</v>
+      </c>
+      <c r="G85">
+        <v>0.9</v>
+      </c>
+      <c r="H85">
+        <v>67.2</v>
+      </c>
+      <c r="I85">
+        <v>2240.13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" t="s">
+        <v>15</v>
+      </c>
+      <c r="B86" t="s">
+        <v>54</v>
+      </c>
+      <c r="D86">
+        <v>871.89</v>
+      </c>
+      <c r="F86" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" t="s">
+        <v>15</v>
+      </c>
+      <c r="B87" t="s">
+        <v>55</v>
+      </c>
+      <c r="D87">
+        <v>734.15</v>
+      </c>
+      <c r="F87" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" t="s">
+        <v>15</v>
+      </c>
+      <c r="B88" t="s">
+        <v>56</v>
+      </c>
+      <c r="D88">
+        <v>927.22</v>
+      </c>
+      <c r="F88" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" t="s">
+        <v>15</v>
+      </c>
+      <c r="B89" t="s">
+        <v>57</v>
+      </c>
+      <c r="D89">
+        <v>932.99</v>
+      </c>
+      <c r="F89" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" t="s">
+        <v>15</v>
+      </c>
+      <c r="B90" t="s">
+        <v>58</v>
+      </c>
+      <c r="D90">
+        <v>909.72</v>
+      </c>
+      <c r="F90" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" t="s">
+        <v>15</v>
+      </c>
+      <c r="B91" t="s">
+        <v>59</v>
+      </c>
+      <c r="D91">
+        <v>718.38</v>
+      </c>
+      <c r="F91" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" t="s">
+        <v>15</v>
+      </c>
+      <c r="B92" t="s">
+        <v>60</v>
+      </c>
+      <c r="D92">
+        <v>952.35</v>
+      </c>
+      <c r="F92" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" t="s">
+        <v>15</v>
+      </c>
+      <c r="B93" t="s">
         <v>61</v>
+      </c>
+      <c r="D93">
+        <v>1342.03</v>
+      </c>
+      <c r="F93" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" t="s">
+        <v>15</v>
+      </c>
+      <c r="B94" t="s">
+        <v>62</v>
+      </c>
+      <c r="D94">
+        <v>1168.14</v>
+      </c>
+      <c r="F94" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 10.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="66">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -64,6 +64,9 @@
     <t>2021-01-16</t>
   </si>
   <si>
+    <t>2021-01-23</t>
+  </si>
+  <si>
     <t>03 May -- 09 May 2020</t>
   </si>
   <si>
@@ -203,6 +206,9 @@
   </si>
   <si>
     <t>21 Mar -- 27 Mar 2021</t>
+  </si>
+  <si>
+    <t>28 Mar -- 03 Apr 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -563,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K94"/>
+  <dimension ref="A1:K114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -609,7 +615,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>1753.71</v>
@@ -621,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G2">
         <v>1.2</v>
@@ -638,7 +644,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>1426.86</v>
@@ -650,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -658,7 +664,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>1220.57</v>
@@ -670,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -678,7 +684,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>946.14</v>
@@ -690,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -698,7 +704,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>873.71</v>
@@ -710,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -718,7 +724,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>744.29</v>
@@ -730,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -738,7 +744,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>602.14</v>
@@ -750,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -758,7 +764,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>565.86</v>
@@ -770,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -778,7 +784,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>524.14</v>
@@ -790,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -798,7 +804,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>748.86</v>
@@ -810,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -818,7 +824,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12">
         <v>786.29</v>
@@ -830,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -838,7 +844,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>922</v>
@@ -850,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -858,7 +864,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14">
         <v>1140.43</v>
@@ -870,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -878,7 +884,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15">
         <v>1038.43</v>
@@ -890,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -898,7 +904,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16">
         <v>1007.43</v>
@@ -910,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -918,7 +924,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17">
         <v>973.4299999999999</v>
@@ -930,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -938,7 +944,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18">
         <v>894.5700000000001</v>
@@ -950,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -958,7 +964,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19">
         <v>846.4299999999999</v>
@@ -970,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -978,7 +984,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>733.14</v>
@@ -990,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -998,7 +1004,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21">
         <v>797.86</v>
@@ -1010,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1018,7 +1024,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22">
         <v>766.4299999999999</v>
@@ -1030,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1038,7 +1044,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23">
         <v>702.14</v>
@@ -1050,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1058,7 +1064,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24">
         <v>714.29</v>
@@ -1070,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1078,7 +1084,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25">
         <v>717.4299999999999</v>
@@ -1090,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1098,7 +1104,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26">
         <v>821.5700000000001</v>
@@ -1110,7 +1116,7 @@
         <v>77.05</v>
       </c>
       <c r="F26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1118,7 +1124,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27">
         <v>819</v>
@@ -1130,7 +1136,7 @@
         <v>27.47</v>
       </c>
       <c r="F27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1138,7 +1144,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28">
         <v>994.86</v>
@@ -1150,7 +1156,7 @@
         <v>63.81</v>
       </c>
       <c r="F28" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1158,7 +1164,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29">
         <v>1087.29</v>
@@ -1170,7 +1176,7 @@
         <v>253.66</v>
       </c>
       <c r="F29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1178,7 +1184,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30">
         <v>1466.29</v>
@@ -1190,7 +1196,7 @@
         <v>722.25</v>
       </c>
       <c r="F30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1198,7 +1204,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C31">
         <v>1447.14</v>
@@ -1210,7 +1216,7 @@
         <v>597.87</v>
       </c>
       <c r="F31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1218,7 +1224,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32">
         <v>2150.29</v>
@@ -1230,7 +1236,7 @@
         <v>1400.98</v>
       </c>
       <c r="F32" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1238,7 +1244,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C33">
         <v>2383.14</v>
@@ -1250,7 +1256,7 @@
         <v>1656.03</v>
       </c>
       <c r="F33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1258,7 +1264,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C34">
         <v>2607.86</v>
@@ -1270,7 +1276,7 @@
         <v>1886.86</v>
       </c>
       <c r="F34" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1278,7 +1284,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C35">
         <v>2241.86</v>
@@ -1290,7 +1296,7 @@
         <v>1420.54</v>
       </c>
       <c r="F35" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J35">
         <v>1420.54</v>
@@ -1304,22 +1310,22 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C36">
-        <v>2604.43</v>
+        <v>2605</v>
       </c>
       <c r="D36">
         <v>810.66</v>
       </c>
       <c r="E36">
-        <v>1793.77</v>
+        <v>1794.34</v>
       </c>
       <c r="F36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J36">
-        <v>1607.15</v>
+        <v>1607.44</v>
       </c>
       <c r="K36">
         <v>66.12</v>
@@ -1330,22 +1336,22 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C37">
-        <v>3172.86</v>
+        <v>3174.29</v>
       </c>
       <c r="D37">
         <v>841.13</v>
       </c>
       <c r="E37">
-        <v>2331.72</v>
+        <v>2333.15</v>
       </c>
       <c r="F37" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J37">
-        <v>1848.68</v>
+        <v>1849.34</v>
       </c>
       <c r="K37">
         <v>68.58</v>
@@ -1356,25 +1362,25 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C38">
-        <v>3333.57</v>
+        <v>3335.29</v>
       </c>
       <c r="D38">
         <v>854.72</v>
       </c>
       <c r="E38">
-        <v>2478.85</v>
+        <v>2480.56</v>
       </c>
       <c r="F38" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J38">
-        <v>2006.22</v>
+        <v>2007.15</v>
       </c>
       <c r="K38">
-        <v>70.02</v>
+        <v>70.03</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1382,13 +1388,25 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="C39">
+        <v>3085.57</v>
       </c>
       <c r="D39">
         <v>873.89</v>
       </c>
+      <c r="E39">
+        <v>2211.68</v>
+      </c>
       <c r="F39" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="J39">
+        <v>2048.05</v>
+      </c>
+      <c r="K39">
+        <v>70.36</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1396,13 +1414,25 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="C40">
+        <v>3141</v>
       </c>
       <c r="D40">
         <v>898.25</v>
       </c>
+      <c r="E40">
+        <v>2242.75</v>
+      </c>
       <c r="F40" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="J40">
+        <v>2080.5</v>
+      </c>
+      <c r="K40">
+        <v>70.53</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1410,13 +1440,13 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D41">
         <v>914.21</v>
       </c>
       <c r="F41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1424,13 +1454,13 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D42">
         <v>1001.97</v>
       </c>
       <c r="F42" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1438,13 +1468,13 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D43">
         <v>1707.62</v>
       </c>
       <c r="F43" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1452,13 +1482,13 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D44">
         <v>1647.52</v>
       </c>
       <c r="F44" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1466,19 +1496,19 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C45">
-        <v>2604.43</v>
+        <v>2605</v>
       </c>
       <c r="D45">
         <v>953.02</v>
       </c>
       <c r="E45">
-        <v>1651.41</v>
+        <v>1651.98</v>
       </c>
       <c r="F45" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G45">
         <v>1.21</v>
@@ -1490,10 +1520,10 @@
         <v>1497.31</v>
       </c>
       <c r="J45">
-        <v>1935.26</v>
+        <v>2019.29</v>
       </c>
       <c r="K45">
-        <v>68.7</v>
+        <v>69.52</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1501,25 +1531,25 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C46">
-        <v>3172.86</v>
+        <v>3174.29</v>
       </c>
       <c r="D46">
         <v>922.84</v>
       </c>
       <c r="E46">
-        <v>2250.02</v>
+        <v>2251.45</v>
       </c>
       <c r="F46" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J46">
-        <v>1987.72</v>
+        <v>2048.31</v>
       </c>
       <c r="K46">
-        <v>69.06999999999999</v>
+        <v>69.69</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1527,25 +1557,25 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C47">
-        <v>3333.57</v>
+        <v>3335.29</v>
       </c>
       <c r="D47">
         <v>854.67</v>
       </c>
       <c r="E47">
-        <v>2478.9</v>
+        <v>2480.61</v>
       </c>
       <c r="F47" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J47">
-        <v>2057.89</v>
+        <v>2096.34</v>
       </c>
       <c r="K47">
-        <v>69.81999999999999</v>
+        <v>70.20999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1553,13 +1583,25 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="C48">
+        <v>3085.57</v>
       </c>
       <c r="D48">
         <v>813.87</v>
       </c>
+      <c r="E48">
+        <v>2271.7</v>
+      </c>
       <c r="F48" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="J48">
+        <v>2113.88</v>
+      </c>
+      <c r="K48">
+        <v>70.55</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -1567,13 +1609,25 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="C49">
+        <v>3141</v>
       </c>
       <c r="D49">
         <v>796.61</v>
       </c>
+      <c r="E49">
+        <v>2344.39</v>
+      </c>
       <c r="F49" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="J49">
+        <v>2134.83</v>
+      </c>
+      <c r="K49">
+        <v>70.93000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -1581,13 +1635,13 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D50">
         <v>786.97</v>
       </c>
       <c r="F50" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -1595,13 +1649,13 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D51">
         <v>1022.85</v>
       </c>
       <c r="F51" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -1609,13 +1663,13 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D52">
         <v>772.28</v>
       </c>
       <c r="F52" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1623,13 +1677,13 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D53">
         <v>767.64</v>
       </c>
       <c r="F53" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1637,13 +1691,13 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D54">
         <v>753.39</v>
       </c>
       <c r="F54" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1651,19 +1705,19 @@
         <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C55">
-        <v>3172.86</v>
+        <v>3174.29</v>
       </c>
       <c r="D55">
         <v>806.17</v>
       </c>
       <c r="E55">
-        <v>2366.68</v>
+        <v>2368.11</v>
       </c>
       <c r="F55" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G55">
         <v>1.11</v>
@@ -1675,10 +1729,10 @@
         <v>1822.4</v>
       </c>
       <c r="J55">
-        <v>2096.49</v>
+        <v>2154.27</v>
       </c>
       <c r="K55">
-        <v>70.42</v>
+        <v>71.23</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1686,25 +1740,25 @@
         <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C56">
-        <v>3333.57</v>
+        <v>3335.29</v>
       </c>
       <c r="D56">
         <v>822.76</v>
       </c>
       <c r="E56">
-        <v>2510.82</v>
+        <v>2512.53</v>
       </c>
       <c r="F56" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J56">
-        <v>2142.52</v>
+        <v>2181.83</v>
       </c>
       <c r="K56">
-        <v>70.95999999999999</v>
+        <v>71.55</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1712,13 +1766,25 @@
         <v>13</v>
       </c>
       <c r="B57" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="C57">
+        <v>3085.57</v>
       </c>
       <c r="D57">
         <v>848.76</v>
       </c>
+      <c r="E57">
+        <v>2236.81</v>
+      </c>
       <c r="F57" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="J57">
+        <v>2185.76</v>
+      </c>
+      <c r="K57">
+        <v>71.61</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1726,13 +1792,25 @@
         <v>13</v>
       </c>
       <c r="B58" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="C58">
+        <v>3141</v>
       </c>
       <c r="D58">
         <v>888.7</v>
       </c>
+      <c r="E58">
+        <v>2252.3</v>
+      </c>
       <c r="F58" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="J58">
+        <v>2190.19</v>
+      </c>
+      <c r="K58">
+        <v>71.62</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1740,13 +1818,13 @@
         <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D59">
         <v>918.3200000000001</v>
       </c>
       <c r="F59" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1754,13 +1832,13 @@
         <v>13</v>
       </c>
       <c r="B60" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D60">
         <v>994.24</v>
       </c>
       <c r="F60" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1768,13 +1846,13 @@
         <v>13</v>
       </c>
       <c r="B61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D61">
         <v>1108.81</v>
       </c>
       <c r="F61" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -1782,13 +1860,13 @@
         <v>13</v>
       </c>
       <c r="B62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D62">
         <v>1187.54</v>
       </c>
       <c r="F62" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -1796,13 +1874,13 @@
         <v>13</v>
       </c>
       <c r="B63" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D63">
         <v>903.4</v>
       </c>
       <c r="F63" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -1810,13 +1888,13 @@
         <v>13</v>
       </c>
       <c r="B64" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D64">
         <v>935.22</v>
       </c>
       <c r="F64" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -1824,19 +1902,19 @@
         <v>14</v>
       </c>
       <c r="B65" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C65">
-        <v>3333.57</v>
+        <v>3335.29</v>
       </c>
       <c r="D65">
         <v>1033.16</v>
       </c>
       <c r="E65">
-        <v>2300.41</v>
+        <v>2302.13</v>
       </c>
       <c r="F65" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G65">
         <v>0.96</v>
@@ -1848,10 +1926,10 @@
         <v>2170.25</v>
       </c>
       <c r="J65">
-        <v>2158.31</v>
+        <v>2197.19</v>
       </c>
       <c r="K65">
-        <v>70.77</v>
+        <v>71.45999999999999</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -1859,13 +1937,25 @@
         <v>14</v>
       </c>
       <c r="B66" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="C66">
+        <v>3085.57</v>
       </c>
       <c r="D66">
         <v>1049.43</v>
       </c>
+      <c r="E66">
+        <v>2036.14</v>
+      </c>
       <c r="F66" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="J66">
+        <v>2187.72</v>
+      </c>
+      <c r="K66">
+        <v>71.14</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -1873,13 +1963,25 @@
         <v>14</v>
       </c>
       <c r="B67" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="C67">
+        <v>3141</v>
       </c>
       <c r="D67">
         <v>874.74</v>
       </c>
+      <c r="E67">
+        <v>2266.26</v>
+      </c>
       <c r="F67" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="J67">
+        <v>2192.08</v>
+      </c>
+      <c r="K67">
+        <v>71.19</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -1887,13 +1989,13 @@
         <v>14</v>
       </c>
       <c r="B68" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D68">
         <v>771.86</v>
       </c>
       <c r="F68" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -1901,13 +2003,13 @@
         <v>14</v>
       </c>
       <c r="B69" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D69">
         <v>821.02</v>
       </c>
       <c r="F69" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -1915,13 +2017,13 @@
         <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D70">
         <v>816.24</v>
       </c>
       <c r="F70" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -1929,13 +2031,13 @@
         <v>14</v>
       </c>
       <c r="B71" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D71">
         <v>1062.92</v>
       </c>
       <c r="F71" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -1943,13 +2045,13 @@
         <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D72">
         <v>1051.94</v>
       </c>
       <c r="F72" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -1957,13 +2059,13 @@
         <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D73">
         <v>778.59</v>
       </c>
       <c r="F73" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -1971,13 +2073,13 @@
         <v>14</v>
       </c>
       <c r="B74" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D74">
         <v>859.84</v>
       </c>
       <c r="F74" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -1985,25 +2087,25 @@
         <v>14</v>
       </c>
       <c r="B75" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C75">
-        <v>3333.57</v>
+        <v>3335.29</v>
       </c>
       <c r="D75">
         <v>1033.16</v>
       </c>
       <c r="E75">
-        <v>2300.41</v>
+        <v>2302.13</v>
       </c>
       <c r="F75" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J75">
-        <v>2171.23</v>
+        <v>2197.87</v>
       </c>
       <c r="K75">
-        <v>70.61</v>
+        <v>71.08</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -2011,13 +2113,25 @@
         <v>14</v>
       </c>
       <c r="B76" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="C76">
+        <v>3085.57</v>
       </c>
       <c r="D76">
         <v>1049.43</v>
       </c>
+      <c r="E76">
+        <v>2036.14</v>
+      </c>
       <c r="F76" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="J76">
+        <v>2189.79</v>
+      </c>
+      <c r="K76">
+        <v>70.81999999999999</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -2025,13 +2139,25 @@
         <v>14</v>
       </c>
       <c r="B77" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="C77">
+        <v>3141</v>
       </c>
       <c r="D77">
         <v>874.74</v>
       </c>
+      <c r="E77">
+        <v>2266.26</v>
+      </c>
       <c r="F77" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="J77">
+        <v>2193.43</v>
+      </c>
+      <c r="K77">
+        <v>70.89</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -2039,13 +2165,13 @@
         <v>14</v>
       </c>
       <c r="B78" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D78">
         <v>771.86</v>
       </c>
       <c r="F78" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -2053,13 +2179,13 @@
         <v>14</v>
       </c>
       <c r="B79" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D79">
         <v>821.02</v>
       </c>
       <c r="F79" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -2067,83 +2193,89 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D80">
         <v>816.24</v>
       </c>
       <c r="F80" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" t="s">
         <v>14</v>
       </c>
       <c r="B81" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D81">
         <v>1062.92</v>
       </c>
       <c r="F81" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" t="s">
         <v>14</v>
       </c>
       <c r="B82" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D82">
         <v>1051.94</v>
       </c>
       <c r="F82" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" t="s">
         <v>14</v>
       </c>
       <c r="B83" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D83">
         <v>778.59</v>
       </c>
       <c r="F83" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" t="s">
         <v>14</v>
       </c>
       <c r="B84" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D84">
         <v>859.84</v>
       </c>
       <c r="F84" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" t="s">
         <v>15</v>
       </c>
       <c r="B85" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="C85">
+        <v>3085.57</v>
       </c>
       <c r="D85">
         <v>973.3200000000001</v>
       </c>
+      <c r="E85">
+        <v>2112.25</v>
+      </c>
       <c r="F85" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G85">
         <v>0.9</v>
@@ -2154,131 +2286,474 @@
       <c r="I85">
         <v>2240.13</v>
       </c>
-    </row>
-    <row r="86" spans="1:9">
+      <c r="J85">
+        <v>2189.74</v>
+      </c>
+      <c r="K85">
+        <v>70.78</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" t="s">
         <v>15</v>
       </c>
       <c r="B86" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="C86">
+        <v>3141</v>
       </c>
       <c r="D86">
         <v>871.89</v>
       </c>
+      <c r="E86">
+        <v>2269.11</v>
+      </c>
       <c r="F86" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J86">
+        <v>2193.19</v>
+      </c>
+      <c r="K86">
+        <v>70.84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" t="s">
         <v>15</v>
       </c>
       <c r="B87" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D87">
         <v>734.15</v>
       </c>
       <c r="F87" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" t="s">
         <v>15</v>
       </c>
       <c r="B88" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D88">
         <v>927.22</v>
       </c>
       <c r="F88" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" t="s">
         <v>15</v>
       </c>
       <c r="B89" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D89">
         <v>932.99</v>
       </c>
       <c r="F89" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" t="s">
         <v>15</v>
       </c>
       <c r="B90" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D90">
         <v>909.72</v>
       </c>
       <c r="F90" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" t="s">
         <v>15</v>
       </c>
       <c r="B91" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D91">
         <v>718.38</v>
       </c>
       <c r="F91" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" t="s">
         <v>15</v>
       </c>
       <c r="B92" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D92">
         <v>952.35</v>
       </c>
       <c r="F92" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" t="s">
         <v>15</v>
       </c>
       <c r="B93" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D93">
         <v>1342.03</v>
       </c>
       <c r="F93" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" t="s">
         <v>15</v>
       </c>
       <c r="B94" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D94">
         <v>1168.14</v>
       </c>
       <c r="F94" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" t="s">
+        <v>15</v>
+      </c>
+      <c r="B95" t="s">
+        <v>54</v>
+      </c>
+      <c r="C95">
+        <v>3085.57</v>
+      </c>
+      <c r="D95">
+        <v>973.3200000000001</v>
+      </c>
+      <c r="E95">
+        <v>2112.25</v>
+      </c>
+      <c r="F95" t="s">
+        <v>65</v>
+      </c>
+      <c r="J95">
+        <v>2189.82</v>
+      </c>
+      <c r="K95">
+        <v>70.73999999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" t="s">
+        <v>15</v>
+      </c>
+      <c r="B96" t="s">
+        <v>55</v>
+      </c>
+      <c r="C96">
+        <v>3141</v>
+      </c>
+      <c r="D96">
+        <v>871.89</v>
+      </c>
+      <c r="E96">
+        <v>2269.11</v>
+      </c>
+      <c r="F96" t="s">
+        <v>65</v>
+      </c>
+      <c r="J96">
+        <v>2192.99</v>
+      </c>
+      <c r="K96">
+        <v>70.8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" t="s">
+        <v>15</v>
+      </c>
+      <c r="B97" t="s">
+        <v>56</v>
+      </c>
+      <c r="D97">
+        <v>734.15</v>
+      </c>
+      <c r="F97" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" t="s">
+        <v>15</v>
+      </c>
+      <c r="B98" t="s">
+        <v>57</v>
+      </c>
+      <c r="D98">
+        <v>927.22</v>
+      </c>
+      <c r="F98" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" t="s">
+        <v>15</v>
+      </c>
+      <c r="B99" t="s">
+        <v>58</v>
+      </c>
+      <c r="D99">
+        <v>932.99</v>
+      </c>
+      <c r="F99" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" t="s">
+        <v>15</v>
+      </c>
+      <c r="B100" t="s">
+        <v>59</v>
+      </c>
+      <c r="D100">
+        <v>909.72</v>
+      </c>
+      <c r="F100" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" t="s">
+        <v>15</v>
+      </c>
+      <c r="B101" t="s">
+        <v>60</v>
+      </c>
+      <c r="D101">
+        <v>718.38</v>
+      </c>
+      <c r="F101" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" t="s">
+        <v>15</v>
+      </c>
+      <c r="B102" t="s">
+        <v>61</v>
+      </c>
+      <c r="D102">
+        <v>952.35</v>
+      </c>
+      <c r="F102" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" t="s">
+        <v>15</v>
+      </c>
+      <c r="B103" t="s">
+        <v>62</v>
+      </c>
+      <c r="D103">
+        <v>1342.03</v>
+      </c>
+      <c r="F103" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" t="s">
+        <v>15</v>
+      </c>
+      <c r="B104" t="s">
         <v>63</v>
+      </c>
+      <c r="D104">
+        <v>1168.14</v>
+      </c>
+      <c r="F104" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" t="s">
+        <v>16</v>
+      </c>
+      <c r="B105" t="s">
+        <v>55</v>
+      </c>
+      <c r="C105">
+        <v>3141</v>
+      </c>
+      <c r="D105">
+        <v>805.13</v>
+      </c>
+      <c r="E105">
+        <v>2335.87</v>
+      </c>
+      <c r="F105" t="s">
+        <v>65</v>
+      </c>
+      <c r="G105">
+        <v>0.97</v>
+      </c>
+      <c r="H105">
+        <v>73.83</v>
+      </c>
+      <c r="I105">
+        <v>2278.17</v>
+      </c>
+      <c r="J105">
+        <v>2198.48</v>
+      </c>
+      <c r="K105">
+        <v>70.94</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" t="s">
+        <v>16</v>
+      </c>
+      <c r="B106" t="s">
+        <v>56</v>
+      </c>
+      <c r="D106">
+        <v>759.37</v>
+      </c>
+      <c r="F106" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" t="s">
+        <v>16</v>
+      </c>
+      <c r="B107" t="s">
+        <v>57</v>
+      </c>
+      <c r="D107">
+        <v>777.84</v>
+      </c>
+      <c r="F107" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" t="s">
+        <v>16</v>
+      </c>
+      <c r="B108" t="s">
+        <v>58</v>
+      </c>
+      <c r="D108">
+        <v>859.05</v>
+      </c>
+      <c r="F108" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" t="s">
+        <v>16</v>
+      </c>
+      <c r="B109" t="s">
+        <v>59</v>
+      </c>
+      <c r="D109">
+        <v>841.3</v>
+      </c>
+      <c r="F109" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" t="s">
+        <v>16</v>
+      </c>
+      <c r="B110" t="s">
+        <v>60</v>
+      </c>
+      <c r="D110">
+        <v>740.84</v>
+      </c>
+      <c r="F110" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" t="s">
+        <v>16</v>
+      </c>
+      <c r="B111" t="s">
+        <v>61</v>
+      </c>
+      <c r="D111">
+        <v>1005.05</v>
+      </c>
+      <c r="F111" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" t="s">
+        <v>16</v>
+      </c>
+      <c r="B112" t="s">
+        <v>62</v>
+      </c>
+      <c r="D112">
+        <v>1388.35</v>
+      </c>
+      <c r="F112" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" t="s">
+        <v>16</v>
+      </c>
+      <c r="B113" t="s">
+        <v>63</v>
+      </c>
+      <c r="D113">
+        <v>1471.12</v>
+      </c>
+      <c r="F113" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" t="s">
+        <v>16</v>
+      </c>
+      <c r="B114" t="s">
+        <v>64</v>
+      </c>
+      <c r="D114">
+        <v>1559.53</v>
+      </c>
+      <c r="F114" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 10.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="68">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -67,6 +67,9 @@
     <t>2021-01-23</t>
   </si>
   <si>
+    <t>2021-01-30</t>
+  </si>
+  <si>
     <t>03 May -- 09 May 2020</t>
   </si>
   <si>
@@ -209,6 +212,9 @@
   </si>
   <si>
     <t>28 Mar -- 03 Apr 2021</t>
+  </si>
+  <si>
+    <t>04 Apr -- 10 Apr 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -569,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K114"/>
+  <dimension ref="A1:K134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -615,7 +621,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>1753.71</v>
@@ -627,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G2">
         <v>1.2</v>
@@ -644,7 +650,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>1426.86</v>
@@ -656,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -664,7 +670,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>1220.57</v>
@@ -676,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -684,7 +690,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>946.14</v>
@@ -696,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -704,7 +710,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>873.71</v>
@@ -716,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -724,7 +730,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>744.29</v>
@@ -736,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -744,7 +750,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8">
         <v>602.14</v>
@@ -756,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -764,7 +770,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9">
         <v>565.86</v>
@@ -776,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -784,7 +790,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10">
         <v>524.14</v>
@@ -796,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -804,7 +810,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11">
         <v>748.86</v>
@@ -816,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -824,7 +830,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>786.29</v>
@@ -836,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -844,7 +850,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13">
         <v>922</v>
@@ -856,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -864,7 +870,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14">
         <v>1140.43</v>
@@ -876,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -884,7 +890,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15">
         <v>1038.43</v>
@@ -896,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -904,7 +910,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16">
         <v>1007.43</v>
@@ -916,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -924,7 +930,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17">
         <v>973.4299999999999</v>
@@ -936,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -944,7 +950,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18">
         <v>894.5700000000001</v>
@@ -956,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -964,7 +970,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>846.4299999999999</v>
@@ -976,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -984,7 +990,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20">
         <v>733.14</v>
@@ -996,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1004,7 +1010,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21">
         <v>797.86</v>
@@ -1016,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1024,7 +1030,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22">
         <v>766.4299999999999</v>
@@ -1036,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1044,7 +1050,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23">
         <v>702.14</v>
@@ -1056,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1064,7 +1070,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C24">
         <v>714.29</v>
@@ -1076,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1084,7 +1090,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C25">
         <v>717.4299999999999</v>
@@ -1096,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1104,7 +1110,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C26">
         <v>821.5700000000001</v>
@@ -1116,7 +1122,7 @@
         <v>77.05</v>
       </c>
       <c r="F26" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1124,7 +1130,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C27">
         <v>819</v>
@@ -1136,7 +1142,7 @@
         <v>27.47</v>
       </c>
       <c r="F27" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1144,7 +1150,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C28">
         <v>994.86</v>
@@ -1156,7 +1162,7 @@
         <v>63.81</v>
       </c>
       <c r="F28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1164,7 +1170,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C29">
         <v>1087.29</v>
@@ -1176,7 +1182,7 @@
         <v>253.66</v>
       </c>
       <c r="F29" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1184,7 +1190,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C30">
         <v>1466.29</v>
@@ -1196,7 +1202,7 @@
         <v>722.25</v>
       </c>
       <c r="F30" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1204,7 +1210,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C31">
         <v>1447.14</v>
@@ -1216,7 +1222,7 @@
         <v>597.87</v>
       </c>
       <c r="F31" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1224,7 +1230,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C32">
         <v>2150.29</v>
@@ -1236,7 +1242,7 @@
         <v>1400.98</v>
       </c>
       <c r="F32" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1244,7 +1250,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C33">
         <v>2383.14</v>
@@ -1256,7 +1262,7 @@
         <v>1656.03</v>
       </c>
       <c r="F33" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1264,7 +1270,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C34">
         <v>2607.86</v>
@@ -1276,7 +1282,7 @@
         <v>1886.86</v>
       </c>
       <c r="F34" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1284,7 +1290,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C35">
         <v>2241.86</v>
@@ -1296,7 +1302,7 @@
         <v>1420.54</v>
       </c>
       <c r="F35" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J35">
         <v>1420.54</v>
@@ -1310,25 +1316,25 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C36">
-        <v>2605</v>
+        <v>2605.43</v>
       </c>
       <c r="D36">
         <v>810.66</v>
       </c>
       <c r="E36">
-        <v>1794.34</v>
+        <v>1794.77</v>
       </c>
       <c r="F36" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J36">
-        <v>1607.44</v>
+        <v>1607.65</v>
       </c>
       <c r="K36">
-        <v>66.12</v>
+        <v>66.13</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1336,19 +1342,19 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C37">
-        <v>3174.29</v>
+        <v>3173.86</v>
       </c>
       <c r="D37">
         <v>841.13</v>
       </c>
       <c r="E37">
-        <v>2333.15</v>
+        <v>2332.72</v>
       </c>
       <c r="F37" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J37">
         <v>1849.34</v>
@@ -1362,7 +1368,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C38">
         <v>3335.29</v>
@@ -1374,7 +1380,7 @@
         <v>2480.56</v>
       </c>
       <c r="F38" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J38">
         <v>2007.15</v>
@@ -1388,7 +1394,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C39">
         <v>3085.57</v>
@@ -1400,7 +1406,7 @@
         <v>2211.68</v>
       </c>
       <c r="F39" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J39">
         <v>2048.05</v>
@@ -1414,25 +1420,25 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C40">
-        <v>3141</v>
+        <v>3150.57</v>
       </c>
       <c r="D40">
         <v>898.25</v>
       </c>
       <c r="E40">
-        <v>2242.75</v>
+        <v>2252.33</v>
       </c>
       <c r="F40" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J40">
-        <v>2080.5</v>
+        <v>2082.1</v>
       </c>
       <c r="K40">
-        <v>70.53</v>
+        <v>70.55</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1440,13 +1446,13 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D41">
         <v>914.21</v>
       </c>
       <c r="F41" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1454,13 +1460,13 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D42">
         <v>1001.97</v>
       </c>
       <c r="F42" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1468,13 +1474,13 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D43">
         <v>1707.62</v>
       </c>
       <c r="F43" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1482,13 +1488,13 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D44">
         <v>1647.52</v>
       </c>
       <c r="F44" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1496,19 +1502,19 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C45">
-        <v>2605</v>
+        <v>2605.43</v>
       </c>
       <c r="D45">
         <v>953.02</v>
       </c>
       <c r="E45">
-        <v>1651.98</v>
+        <v>1652.41</v>
       </c>
       <c r="F45" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G45">
         <v>1.21</v>
@@ -1520,10 +1526,10 @@
         <v>1497.31</v>
       </c>
       <c r="J45">
-        <v>2019.29</v>
+        <v>2020.72</v>
       </c>
       <c r="K45">
-        <v>69.52</v>
+        <v>69.53</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1531,25 +1537,25 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C46">
-        <v>3174.29</v>
+        <v>3173.86</v>
       </c>
       <c r="D46">
         <v>922.84</v>
       </c>
       <c r="E46">
-        <v>2251.45</v>
+        <v>2251.02</v>
       </c>
       <c r="F46" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J46">
-        <v>2048.31</v>
+        <v>2049.5</v>
       </c>
       <c r="K46">
-        <v>69.69</v>
+        <v>69.7</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1557,7 +1563,7 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C47">
         <v>3335.29</v>
@@ -1569,13 +1575,13 @@
         <v>2480.61</v>
       </c>
       <c r="F47" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J47">
-        <v>2096.34</v>
+        <v>2097.41</v>
       </c>
       <c r="K47">
-        <v>70.20999999999999</v>
+        <v>70.22</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1583,7 +1589,7 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C48">
         <v>3085.57</v>
@@ -1595,13 +1601,13 @@
         <v>2271.7</v>
       </c>
       <c r="F48" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J48">
-        <v>2113.88</v>
+        <v>2114.83</v>
       </c>
       <c r="K48">
-        <v>70.55</v>
+        <v>70.56</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -1609,25 +1615,25 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C49">
-        <v>3141</v>
+        <v>3150.57</v>
       </c>
       <c r="D49">
         <v>796.61</v>
       </c>
       <c r="E49">
-        <v>2344.39</v>
+        <v>2353.96</v>
       </c>
       <c r="F49" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J49">
-        <v>2134.83</v>
+        <v>2136.57</v>
       </c>
       <c r="K49">
-        <v>70.93000000000001</v>
+        <v>70.94</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -1635,13 +1641,13 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D50">
         <v>786.97</v>
       </c>
       <c r="F50" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -1649,13 +1655,13 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D51">
         <v>1022.85</v>
       </c>
       <c r="F51" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -1663,13 +1669,13 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D52">
         <v>772.28</v>
       </c>
       <c r="F52" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1677,13 +1683,13 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D53">
         <v>767.64</v>
       </c>
       <c r="F53" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1691,13 +1697,13 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D54">
         <v>753.39</v>
       </c>
       <c r="F54" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1705,19 +1711,19 @@
         <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C55">
-        <v>3174.29</v>
+        <v>3173.86</v>
       </c>
       <c r="D55">
         <v>806.17</v>
       </c>
       <c r="E55">
-        <v>2368.11</v>
+        <v>2367.68</v>
       </c>
       <c r="F55" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G55">
         <v>1.11</v>
@@ -1729,10 +1735,10 @@
         <v>1822.4</v>
       </c>
       <c r="J55">
-        <v>2154.27</v>
+        <v>2155.83</v>
       </c>
       <c r="K55">
-        <v>71.23</v>
+        <v>71.25</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1740,7 +1746,7 @@
         <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C56">
         <v>3335.29</v>
@@ -1752,13 +1758,13 @@
         <v>2512.53</v>
       </c>
       <c r="F56" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J56">
-        <v>2181.83</v>
+        <v>2183.27</v>
       </c>
       <c r="K56">
-        <v>71.55</v>
+        <v>71.56</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1766,7 +1772,7 @@
         <v>13</v>
       </c>
       <c r="B57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C57">
         <v>3085.57</v>
@@ -1778,13 +1784,13 @@
         <v>2236.81</v>
       </c>
       <c r="F57" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J57">
-        <v>2185.76</v>
+        <v>2187.09</v>
       </c>
       <c r="K57">
-        <v>71.61</v>
+        <v>71.63</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1792,25 +1798,25 @@
         <v>13</v>
       </c>
       <c r="B58" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C58">
-        <v>3141</v>
+        <v>3150.57</v>
       </c>
       <c r="D58">
         <v>888.7</v>
       </c>
       <c r="E58">
-        <v>2252.3</v>
+        <v>2261.88</v>
       </c>
       <c r="F58" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J58">
-        <v>2190.19</v>
+        <v>2192.08</v>
       </c>
       <c r="K58">
-        <v>71.62</v>
+        <v>71.64</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1818,13 +1824,13 @@
         <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D59">
         <v>918.3200000000001</v>
       </c>
       <c r="F59" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1832,13 +1838,13 @@
         <v>13</v>
       </c>
       <c r="B60" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D60">
         <v>994.24</v>
       </c>
       <c r="F60" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1846,13 +1852,13 @@
         <v>13</v>
       </c>
       <c r="B61" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D61">
         <v>1108.81</v>
       </c>
       <c r="F61" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -1860,13 +1866,13 @@
         <v>13</v>
       </c>
       <c r="B62" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D62">
         <v>1187.54</v>
       </c>
       <c r="F62" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -1874,13 +1880,13 @@
         <v>13</v>
       </c>
       <c r="B63" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D63">
         <v>903.4</v>
       </c>
       <c r="F63" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -1888,13 +1894,13 @@
         <v>13</v>
       </c>
       <c r="B64" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D64">
         <v>935.22</v>
       </c>
       <c r="F64" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -1902,7 +1908,7 @@
         <v>14</v>
       </c>
       <c r="B65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C65">
         <v>3335.29</v>
@@ -1914,7 +1920,7 @@
         <v>2302.13</v>
       </c>
       <c r="F65" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G65">
         <v>0.96</v>
@@ -1926,10 +1932,10 @@
         <v>2170.25</v>
       </c>
       <c r="J65">
-        <v>2197.19</v>
+        <v>2198.96</v>
       </c>
       <c r="K65">
-        <v>71.45999999999999</v>
+        <v>71.47</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -1937,7 +1943,7 @@
         <v>14</v>
       </c>
       <c r="B66" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C66">
         <v>3085.57</v>
@@ -1949,13 +1955,13 @@
         <v>2036.14</v>
       </c>
       <c r="F66" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J66">
-        <v>2187.72</v>
+        <v>2189.38</v>
       </c>
       <c r="K66">
-        <v>71.14</v>
+        <v>71.15000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -1963,25 +1969,25 @@
         <v>14</v>
       </c>
       <c r="B67" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C67">
-        <v>3141</v>
+        <v>3150.57</v>
       </c>
       <c r="D67">
         <v>874.74</v>
       </c>
       <c r="E67">
-        <v>2266.26</v>
+        <v>2275.83</v>
       </c>
       <c r="F67" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J67">
-        <v>2192.08</v>
+        <v>2194.18</v>
       </c>
       <c r="K67">
-        <v>71.19</v>
+        <v>71.20999999999999</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -1989,13 +1995,13 @@
         <v>14</v>
       </c>
       <c r="B68" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D68">
         <v>771.86</v>
       </c>
       <c r="F68" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2003,13 +2009,13 @@
         <v>14</v>
       </c>
       <c r="B69" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D69">
         <v>821.02</v>
       </c>
       <c r="F69" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2017,13 +2023,13 @@
         <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D70">
         <v>816.24</v>
       </c>
       <c r="F70" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2031,13 +2037,13 @@
         <v>14</v>
       </c>
       <c r="B71" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D71">
         <v>1062.92</v>
       </c>
       <c r="F71" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2045,13 +2051,13 @@
         <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D72">
         <v>1051.94</v>
       </c>
       <c r="F72" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2059,13 +2065,13 @@
         <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D73">
         <v>778.59</v>
       </c>
       <c r="F73" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2073,13 +2079,13 @@
         <v>14</v>
       </c>
       <c r="B74" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D74">
         <v>859.84</v>
       </c>
       <c r="F74" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -2087,7 +2093,7 @@
         <v>14</v>
       </c>
       <c r="B75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C75">
         <v>3335.29</v>
@@ -2099,13 +2105,13 @@
         <v>2302.13</v>
       </c>
       <c r="F75" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J75">
-        <v>2197.87</v>
+        <v>2199.86</v>
       </c>
       <c r="K75">
-        <v>71.08</v>
+        <v>71.09999999999999</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -2113,7 +2119,7 @@
         <v>14</v>
       </c>
       <c r="B76" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C76">
         <v>3085.57</v>
@@ -2125,13 +2131,13 @@
         <v>2036.14</v>
       </c>
       <c r="F76" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J76">
-        <v>2189.79</v>
+        <v>2191.68</v>
       </c>
       <c r="K76">
-        <v>70.81999999999999</v>
+        <v>70.84</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -2139,25 +2145,25 @@
         <v>14</v>
       </c>
       <c r="B77" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C77">
-        <v>3141</v>
+        <v>3150.57</v>
       </c>
       <c r="D77">
         <v>874.74</v>
       </c>
       <c r="E77">
-        <v>2266.26</v>
+        <v>2275.83</v>
       </c>
       <c r="F77" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J77">
-        <v>2193.43</v>
+        <v>2195.69</v>
       </c>
       <c r="K77">
-        <v>70.89</v>
+        <v>70.91</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -2165,13 +2171,13 @@
         <v>14</v>
       </c>
       <c r="B78" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D78">
         <v>771.86</v>
       </c>
       <c r="F78" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -2179,13 +2185,13 @@
         <v>14</v>
       </c>
       <c r="B79" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D79">
         <v>821.02</v>
       </c>
       <c r="F79" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -2193,13 +2199,13 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D80">
         <v>816.24</v>
       </c>
       <c r="F80" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -2207,13 +2213,13 @@
         <v>14</v>
       </c>
       <c r="B81" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D81">
         <v>1062.92</v>
       </c>
       <c r="F81" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -2221,13 +2227,13 @@
         <v>14</v>
       </c>
       <c r="B82" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D82">
         <v>1051.94</v>
       </c>
       <c r="F82" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -2235,13 +2241,13 @@
         <v>14</v>
       </c>
       <c r="B83" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D83">
         <v>778.59</v>
       </c>
       <c r="F83" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -2249,13 +2255,13 @@
         <v>14</v>
       </c>
       <c r="B84" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D84">
         <v>859.84</v>
       </c>
       <c r="F84" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -2263,7 +2269,7 @@
         <v>15</v>
       </c>
       <c r="B85" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C85">
         <v>3085.57</v>
@@ -2275,7 +2281,7 @@
         <v>2112.25</v>
       </c>
       <c r="F85" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G85">
         <v>0.9</v>
@@ -2287,10 +2293,10 @@
         <v>2240.13</v>
       </c>
       <c r="J85">
-        <v>2189.74</v>
+        <v>2191.89</v>
       </c>
       <c r="K85">
-        <v>70.78</v>
+        <v>70.8</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -2298,25 +2304,25 @@
         <v>15</v>
       </c>
       <c r="B86" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C86">
-        <v>3141</v>
+        <v>3150.57</v>
       </c>
       <c r="D86">
         <v>871.89</v>
       </c>
       <c r="E86">
-        <v>2269.11</v>
+        <v>2278.68</v>
       </c>
       <c r="F86" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J86">
-        <v>2193.19</v>
+        <v>2195.67</v>
       </c>
       <c r="K86">
-        <v>70.84</v>
+        <v>70.86</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -2324,13 +2330,13 @@
         <v>15</v>
       </c>
       <c r="B87" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D87">
         <v>734.15</v>
       </c>
       <c r="F87" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -2338,13 +2344,13 @@
         <v>15</v>
       </c>
       <c r="B88" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D88">
         <v>927.22</v>
       </c>
       <c r="F88" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -2352,13 +2358,13 @@
         <v>15</v>
       </c>
       <c r="B89" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D89">
         <v>932.99</v>
       </c>
       <c r="F89" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -2366,13 +2372,13 @@
         <v>15</v>
       </c>
       <c r="B90" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D90">
         <v>909.72</v>
       </c>
       <c r="F90" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -2380,13 +2386,13 @@
         <v>15</v>
       </c>
       <c r="B91" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D91">
         <v>718.38</v>
       </c>
       <c r="F91" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -2394,13 +2400,13 @@
         <v>15</v>
       </c>
       <c r="B92" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D92">
         <v>952.35</v>
       </c>
       <c r="F92" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -2408,13 +2414,13 @@
         <v>15</v>
       </c>
       <c r="B93" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D93">
         <v>1342.03</v>
       </c>
       <c r="F93" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -2422,13 +2428,13 @@
         <v>15</v>
       </c>
       <c r="B94" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D94">
         <v>1168.14</v>
       </c>
       <c r="F94" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -2436,7 +2442,7 @@
         <v>15</v>
       </c>
       <c r="B95" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C95">
         <v>3085.57</v>
@@ -2448,13 +2454,13 @@
         <v>2112.25</v>
       </c>
       <c r="F95" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J95">
-        <v>2189.82</v>
+        <v>2192.19</v>
       </c>
       <c r="K95">
-        <v>70.73999999999999</v>
+        <v>70.76000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -2462,25 +2468,25 @@
         <v>15</v>
       </c>
       <c r="B96" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C96">
-        <v>3141</v>
+        <v>3150.57</v>
       </c>
       <c r="D96">
         <v>871.89</v>
       </c>
       <c r="E96">
-        <v>2269.11</v>
+        <v>2278.68</v>
       </c>
       <c r="F96" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J96">
-        <v>2192.99</v>
+        <v>2195.65</v>
       </c>
       <c r="K96">
-        <v>70.8</v>
+        <v>70.81999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -2488,13 +2494,13 @@
         <v>15</v>
       </c>
       <c r="B97" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D97">
         <v>734.15</v>
       </c>
       <c r="F97" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -2502,13 +2508,13 @@
         <v>15</v>
       </c>
       <c r="B98" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D98">
         <v>927.22</v>
       </c>
       <c r="F98" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -2516,13 +2522,13 @@
         <v>15</v>
       </c>
       <c r="B99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D99">
         <v>932.99</v>
       </c>
       <c r="F99" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -2530,13 +2536,13 @@
         <v>15</v>
       </c>
       <c r="B100" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D100">
         <v>909.72</v>
       </c>
       <c r="F100" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -2544,13 +2550,13 @@
         <v>15</v>
       </c>
       <c r="B101" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D101">
         <v>718.38</v>
       </c>
       <c r="F101" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -2558,13 +2564,13 @@
         <v>15</v>
       </c>
       <c r="B102" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D102">
         <v>952.35</v>
       </c>
       <c r="F102" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -2572,13 +2578,13 @@
         <v>15</v>
       </c>
       <c r="B103" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D103">
         <v>1342.03</v>
       </c>
       <c r="F103" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -2586,13 +2592,13 @@
         <v>15</v>
       </c>
       <c r="B104" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D104">
         <v>1168.14</v>
       </c>
       <c r="F104" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -2600,19 +2606,19 @@
         <v>16</v>
       </c>
       <c r="B105" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C105">
-        <v>3141</v>
+        <v>3150.57</v>
       </c>
       <c r="D105">
         <v>805.13</v>
       </c>
       <c r="E105">
-        <v>2335.87</v>
+        <v>2345.44</v>
       </c>
       <c r="F105" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G105">
         <v>0.97</v>
@@ -2624,10 +2630,10 @@
         <v>2278.17</v>
       </c>
       <c r="J105">
-        <v>2198.48</v>
+        <v>2201.41</v>
       </c>
       <c r="K105">
-        <v>70.94</v>
+        <v>70.95999999999999</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -2635,13 +2641,13 @@
         <v>16</v>
       </c>
       <c r="B106" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D106">
         <v>759.37</v>
       </c>
       <c r="F106" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -2649,13 +2655,13 @@
         <v>16</v>
       </c>
       <c r="B107" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D107">
         <v>777.84</v>
       </c>
       <c r="F107" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -2663,13 +2669,13 @@
         <v>16</v>
       </c>
       <c r="B108" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D108">
         <v>859.05</v>
       </c>
       <c r="F108" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -2677,13 +2683,13 @@
         <v>16</v>
       </c>
       <c r="B109" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D109">
         <v>841.3</v>
       </c>
       <c r="F109" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -2691,13 +2697,13 @@
         <v>16</v>
       </c>
       <c r="B110" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D110">
         <v>740.84</v>
       </c>
       <c r="F110" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -2705,13 +2711,13 @@
         <v>16</v>
       </c>
       <c r="B111" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D111">
         <v>1005.05</v>
       </c>
       <c r="F111" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -2719,41 +2725,342 @@
         <v>16</v>
       </c>
       <c r="B112" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D112">
         <v>1388.35</v>
       </c>
       <c r="F112" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
       <c r="A113" t="s">
         <v>16</v>
       </c>
       <c r="B113" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D113">
         <v>1471.12</v>
       </c>
       <c r="F113" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
       <c r="A114" t="s">
         <v>16</v>
       </c>
       <c r="B114" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D114">
         <v>1559.53</v>
       </c>
       <c r="F114" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" t="s">
+        <v>16</v>
+      </c>
+      <c r="B115" t="s">
+        <v>56</v>
+      </c>
+      <c r="C115">
+        <v>3150.57</v>
+      </c>
+      <c r="D115">
+        <v>805.13</v>
+      </c>
+      <c r="E115">
+        <v>2345.44</v>
+      </c>
+      <c r="F115" t="s">
+        <v>67</v>
+      </c>
+      <c r="J115">
+        <v>2206.75</v>
+      </c>
+      <c r="K115">
+        <v>71.09</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116" t="s">
+        <v>16</v>
+      </c>
+      <c r="B116" t="s">
+        <v>57</v>
+      </c>
+      <c r="D116">
+        <v>759.37</v>
+      </c>
+      <c r="F116" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117" t="s">
+        <v>16</v>
+      </c>
+      <c r="B117" t="s">
+        <v>58</v>
+      </c>
+      <c r="D117">
+        <v>777.84</v>
+      </c>
+      <c r="F117" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118" t="s">
+        <v>16</v>
+      </c>
+      <c r="B118" t="s">
+        <v>59</v>
+      </c>
+      <c r="D118">
+        <v>859.05</v>
+      </c>
+      <c r="F118" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119" t="s">
+        <v>16</v>
+      </c>
+      <c r="B119" t="s">
+        <v>60</v>
+      </c>
+      <c r="D119">
+        <v>841.3</v>
+      </c>
+      <c r="F119" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" t="s">
+        <v>16</v>
+      </c>
+      <c r="B120" t="s">
+        <v>61</v>
+      </c>
+      <c r="D120">
+        <v>740.84</v>
+      </c>
+      <c r="F120" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121" t="s">
+        <v>16</v>
+      </c>
+      <c r="B121" t="s">
+        <v>62</v>
+      </c>
+      <c r="D121">
+        <v>1005.07</v>
+      </c>
+      <c r="F121" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" t="s">
+        <v>16</v>
+      </c>
+      <c r="B122" t="s">
+        <v>63</v>
+      </c>
+      <c r="D122">
+        <v>1388.34</v>
+      </c>
+      <c r="F122" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" t="s">
+        <v>16</v>
+      </c>
+      <c r="B123" t="s">
+        <v>64</v>
+      </c>
+      <c r="D123">
+        <v>1471.11</v>
+      </c>
+      <c r="F123" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124" t="s">
+        <v>16</v>
+      </c>
+      <c r="B124" t="s">
         <v>65</v>
+      </c>
+      <c r="D124">
+        <v>1559.52</v>
+      </c>
+      <c r="F124" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125" t="s">
+        <v>17</v>
+      </c>
+      <c r="B125" t="s">
+        <v>57</v>
+      </c>
+      <c r="D125">
+        <v>819.92</v>
+      </c>
+      <c r="F125" t="s">
+        <v>67</v>
+      </c>
+      <c r="G125">
+        <v>0.98</v>
+      </c>
+      <c r="H125">
+        <v>73.01000000000001</v>
+      </c>
+      <c r="I125">
+        <v>2300.12</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126" t="s">
+        <v>17</v>
+      </c>
+      <c r="B126" t="s">
+        <v>58</v>
+      </c>
+      <c r="D126">
+        <v>987.1900000000001</v>
+      </c>
+      <c r="F126" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127" t="s">
+        <v>17</v>
+      </c>
+      <c r="B127" t="s">
+        <v>59</v>
+      </c>
+      <c r="D127">
+        <v>1056.7</v>
+      </c>
+      <c r="F127" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128" t="s">
+        <v>17</v>
+      </c>
+      <c r="B128" t="s">
+        <v>60</v>
+      </c>
+      <c r="D128">
+        <v>1105.66</v>
+      </c>
+      <c r="F128" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" t="s">
+        <v>17</v>
+      </c>
+      <c r="B129" t="s">
+        <v>61</v>
+      </c>
+      <c r="D129">
+        <v>1137.4</v>
+      </c>
+      <c r="F129" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" t="s">
+        <v>17</v>
+      </c>
+      <c r="B130" t="s">
+        <v>62</v>
+      </c>
+      <c r="D130">
+        <v>1184.36</v>
+      </c>
+      <c r="F130" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" t="s">
+        <v>17</v>
+      </c>
+      <c r="B131" t="s">
+        <v>63</v>
+      </c>
+      <c r="D131">
+        <v>1131.37</v>
+      </c>
+      <c r="F131" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" t="s">
+        <v>17</v>
+      </c>
+      <c r="B132" t="s">
+        <v>64</v>
+      </c>
+      <c r="D132">
+        <v>1206.46</v>
+      </c>
+      <c r="F132" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" t="s">
+        <v>17</v>
+      </c>
+      <c r="B133" t="s">
+        <v>65</v>
+      </c>
+      <c r="D133">
+        <v>1436.41</v>
+      </c>
+      <c r="F133" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" t="s">
+        <v>17</v>
+      </c>
+      <c r="B134" t="s">
+        <v>66</v>
+      </c>
+      <c r="D134">
+        <v>1675.37</v>
+      </c>
+      <c r="F134" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 10.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="70">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -70,6 +70,9 @@
     <t>2021-01-30</t>
   </si>
   <si>
+    <t>2021-02-06</t>
+  </si>
+  <si>
     <t>03 May -- 09 May 2020</t>
   </si>
   <si>
@@ -215,6 +218,9 @@
   </si>
   <si>
     <t>04 Apr -- 10 Apr 2021</t>
+  </si>
+  <si>
+    <t>11 Apr -- 17 Apr 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -575,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K134"/>
+  <dimension ref="A1:K154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -621,7 +627,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>1753.71</v>
@@ -633,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G2">
         <v>1.2</v>
@@ -650,7 +656,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>1426.86</v>
@@ -662,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -670,7 +676,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>1220.57</v>
@@ -682,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -690,7 +696,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>946.14</v>
@@ -702,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -710,7 +716,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>873.71</v>
@@ -722,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -730,7 +736,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>744.29</v>
@@ -742,7 +748,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -750,7 +756,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>602.14</v>
@@ -762,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -770,7 +776,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9">
         <v>565.86</v>
@@ -782,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -790,7 +796,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10">
         <v>524.14</v>
@@ -802,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -810,7 +816,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>748.86</v>
@@ -822,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -830,7 +836,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12">
         <v>786.29</v>
@@ -842,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -850,7 +856,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13">
         <v>922</v>
@@ -862,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -870,7 +876,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14">
         <v>1140.43</v>
@@ -882,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -890,7 +896,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15">
         <v>1038.43</v>
@@ -902,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -910,7 +916,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16">
         <v>1007.43</v>
@@ -922,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -930,7 +936,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17">
         <v>973.4299999999999</v>
@@ -942,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -950,7 +956,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>894.5700000000001</v>
@@ -962,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -970,7 +976,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19">
         <v>846.4299999999999</v>
@@ -982,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -990,7 +996,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C20">
         <v>733.14</v>
@@ -1002,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1010,7 +1016,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21">
         <v>797.86</v>
@@ -1022,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1030,7 +1036,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22">
         <v>766.4299999999999</v>
@@ -1042,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1050,7 +1056,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C23">
         <v>702.14</v>
@@ -1062,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1070,7 +1076,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C24">
         <v>714.29</v>
@@ -1082,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1090,7 +1096,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25">
         <v>717.4299999999999</v>
@@ -1102,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1110,7 +1116,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C26">
         <v>821.5700000000001</v>
@@ -1122,7 +1128,7 @@
         <v>77.05</v>
       </c>
       <c r="F26" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1130,7 +1136,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C27">
         <v>819</v>
@@ -1142,7 +1148,7 @@
         <v>27.47</v>
       </c>
       <c r="F27" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1150,7 +1156,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C28">
         <v>994.86</v>
@@ -1162,7 +1168,7 @@
         <v>63.81</v>
       </c>
       <c r="F28" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1170,7 +1176,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C29">
         <v>1087.29</v>
@@ -1182,7 +1188,7 @@
         <v>253.66</v>
       </c>
       <c r="F29" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1190,7 +1196,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C30">
         <v>1466.29</v>
@@ -1202,7 +1208,7 @@
         <v>722.25</v>
       </c>
       <c r="F30" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1210,7 +1216,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C31">
         <v>1447.14</v>
@@ -1222,7 +1228,7 @@
         <v>597.87</v>
       </c>
       <c r="F31" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1230,7 +1236,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C32">
         <v>2150.29</v>
@@ -1242,7 +1248,7 @@
         <v>1400.98</v>
       </c>
       <c r="F32" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1250,7 +1256,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C33">
         <v>2383.14</v>
@@ -1262,7 +1268,7 @@
         <v>1656.03</v>
       </c>
       <c r="F33" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1270,7 +1276,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C34">
         <v>2607.86</v>
@@ -1282,7 +1288,7 @@
         <v>1886.86</v>
       </c>
       <c r="F34" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1290,25 +1296,25 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C35">
-        <v>2241.86</v>
+        <v>2376.86</v>
       </c>
       <c r="D35">
         <v>821.3200000000001</v>
       </c>
       <c r="E35">
-        <v>1420.54</v>
+        <v>1555.54</v>
       </c>
       <c r="F35" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J35">
-        <v>1420.54</v>
+        <v>1555.54</v>
       </c>
       <c r="K35">
-        <v>63.36</v>
+        <v>65.45</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1316,25 +1322,25 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C36">
-        <v>2605.43</v>
+        <v>2683.43</v>
       </c>
       <c r="D36">
         <v>810.66</v>
       </c>
       <c r="E36">
-        <v>1794.77</v>
+        <v>1872.77</v>
       </c>
       <c r="F36" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J36">
-        <v>1607.65</v>
+        <v>1714.15</v>
       </c>
       <c r="K36">
-        <v>66.13</v>
+        <v>67.62</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1342,25 +1348,25 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C37">
-        <v>3173.86</v>
+        <v>3148.14</v>
       </c>
       <c r="D37">
         <v>841.13</v>
       </c>
       <c r="E37">
-        <v>2332.72</v>
+        <v>2307.01</v>
       </c>
       <c r="F37" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J37">
-        <v>1849.34</v>
+        <v>1911.77</v>
       </c>
       <c r="K37">
-        <v>68.58</v>
+        <v>69.51000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1368,25 +1374,25 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C38">
-        <v>3335.29</v>
+        <v>3334.29</v>
       </c>
       <c r="D38">
         <v>854.72</v>
       </c>
       <c r="E38">
-        <v>2480.56</v>
+        <v>2479.56</v>
       </c>
       <c r="F38" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J38">
-        <v>2007.15</v>
+        <v>2053.72</v>
       </c>
       <c r="K38">
-        <v>70.03</v>
+        <v>70.72</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1394,25 +1400,25 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C39">
-        <v>3085.57</v>
+        <v>3059</v>
       </c>
       <c r="D39">
         <v>873.89</v>
       </c>
       <c r="E39">
-        <v>2211.68</v>
+        <v>2185.11</v>
       </c>
       <c r="F39" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J39">
-        <v>2048.05</v>
+        <v>2080</v>
       </c>
       <c r="K39">
-        <v>70.36</v>
+        <v>70.86</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1420,25 +1426,25 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C40">
-        <v>3150.57</v>
+        <v>3130.29</v>
       </c>
       <c r="D40">
         <v>898.25</v>
       </c>
       <c r="E40">
-        <v>2252.33</v>
+        <v>2232.04</v>
       </c>
       <c r="F40" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J40">
-        <v>2082.1</v>
+        <v>2105.34</v>
       </c>
       <c r="K40">
-        <v>70.55</v>
+        <v>70.94</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1446,13 +1452,25 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C41">
+        <v>2986.71</v>
       </c>
       <c r="D41">
         <v>914.21</v>
       </c>
+      <c r="E41">
+        <v>2072.5</v>
+      </c>
       <c r="F41" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="J41">
+        <v>2100.65</v>
+      </c>
+      <c r="K41">
+        <v>70.72</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1460,13 +1478,25 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C42">
+        <v>2487.29</v>
       </c>
       <c r="D42">
         <v>1001.97</v>
       </c>
+      <c r="E42">
+        <v>1485.31</v>
+      </c>
       <c r="F42" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="J42">
+        <v>2023.73</v>
+      </c>
+      <c r="K42">
+        <v>69.34</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1474,13 +1504,25 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C43">
+        <v>1906.71</v>
       </c>
       <c r="D43">
         <v>1707.62</v>
       </c>
+      <c r="E43">
+        <v>199.1</v>
+      </c>
       <c r="F43" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="J43">
+        <v>1820.99</v>
+      </c>
+      <c r="K43">
+        <v>62.8</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1488,13 +1530,13 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D44">
         <v>1647.52</v>
       </c>
       <c r="F44" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1502,19 +1544,19 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C45">
-        <v>2605.43</v>
+        <v>2683.43</v>
       </c>
       <c r="D45">
         <v>953.02</v>
       </c>
       <c r="E45">
-        <v>1652.41</v>
+        <v>1730.41</v>
       </c>
       <c r="F45" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G45">
         <v>1.21</v>
@@ -1526,10 +1568,10 @@
         <v>1497.31</v>
       </c>
       <c r="J45">
-        <v>2020.72</v>
+        <v>1811.94</v>
       </c>
       <c r="K45">
-        <v>69.53</v>
+        <v>62.97</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1537,25 +1579,25 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C46">
-        <v>3173.86</v>
+        <v>3148.14</v>
       </c>
       <c r="D46">
         <v>922.84</v>
       </c>
       <c r="E46">
-        <v>2251.02</v>
+        <v>2225.31</v>
       </c>
       <c r="F46" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J46">
-        <v>2049.5</v>
+        <v>1849.51</v>
       </c>
       <c r="K46">
-        <v>69.7</v>
+        <v>63.67</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1563,25 +1605,25 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C47">
-        <v>3335.29</v>
+        <v>3334.29</v>
       </c>
       <c r="D47">
         <v>854.67</v>
       </c>
       <c r="E47">
-        <v>2480.61</v>
+        <v>2479.61</v>
       </c>
       <c r="F47" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J47">
-        <v>2097.41</v>
+        <v>1902.02</v>
       </c>
       <c r="K47">
-        <v>70.22</v>
+        <v>64.56</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1589,25 +1631,25 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C48">
-        <v>3085.57</v>
+        <v>3059</v>
       </c>
       <c r="D48">
         <v>813.87</v>
       </c>
       <c r="E48">
-        <v>2271.7</v>
+        <v>2245.13</v>
       </c>
       <c r="F48" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J48">
-        <v>2114.83</v>
+        <v>1928.42</v>
       </c>
       <c r="K48">
-        <v>70.56</v>
+        <v>65.23999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -1615,25 +1657,25 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C49">
-        <v>3150.57</v>
+        <v>3130.29</v>
       </c>
       <c r="D49">
         <v>796.61</v>
       </c>
       <c r="E49">
-        <v>2353.96</v>
+        <v>2333.67</v>
       </c>
       <c r="F49" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J49">
-        <v>2136.57</v>
+        <v>1957.36</v>
       </c>
       <c r="K49">
-        <v>70.94</v>
+        <v>65.90000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -1641,13 +1683,25 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C50">
+        <v>2986.71</v>
       </c>
       <c r="D50">
         <v>786.97</v>
       </c>
+      <c r="E50">
+        <v>2199.75</v>
+      </c>
       <c r="F50" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="J50">
+        <v>1973.52</v>
+      </c>
+      <c r="K50">
+        <v>66.42</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -1655,13 +1709,25 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C51">
+        <v>2487.29</v>
       </c>
       <c r="D51">
         <v>1022.85</v>
       </c>
+      <c r="E51">
+        <v>1464.44</v>
+      </c>
       <c r="F51" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="J51">
+        <v>1941.7</v>
+      </c>
+      <c r="K51">
+        <v>65.95</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -1669,13 +1735,25 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C52">
+        <v>1906.71</v>
       </c>
       <c r="D52">
         <v>772.28</v>
       </c>
+      <c r="E52">
+        <v>1134.43</v>
+      </c>
       <c r="F52" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="J52">
+        <v>1894.22</v>
+      </c>
+      <c r="K52">
+        <v>65.56999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1683,13 +1761,13 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D53">
         <v>767.64</v>
       </c>
       <c r="F53" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1697,13 +1775,13 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D54">
         <v>753.39</v>
       </c>
       <c r="F54" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1711,19 +1789,19 @@
         <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C55">
-        <v>3173.86</v>
+        <v>3148.14</v>
       </c>
       <c r="D55">
         <v>806.17</v>
       </c>
       <c r="E55">
-        <v>2367.68</v>
+        <v>2341.97</v>
       </c>
       <c r="F55" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G55">
         <v>1.11</v>
@@ -1735,10 +1813,10 @@
         <v>1822.4</v>
       </c>
       <c r="J55">
-        <v>2155.83</v>
+        <v>1919.09</v>
       </c>
       <c r="K55">
-        <v>71.25</v>
+        <v>66.06</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1746,25 +1824,25 @@
         <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C56">
-        <v>3335.29</v>
+        <v>3334.29</v>
       </c>
       <c r="D56">
         <v>822.76</v>
       </c>
       <c r="E56">
-        <v>2512.53</v>
+        <v>2511.53</v>
       </c>
       <c r="F56" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J56">
-        <v>2183.27</v>
+        <v>1950.27</v>
       </c>
       <c r="K56">
-        <v>71.56</v>
+        <v>66.55</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1772,25 +1850,25 @@
         <v>13</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C57">
-        <v>3085.57</v>
+        <v>3059</v>
       </c>
       <c r="D57">
         <v>848.76</v>
       </c>
       <c r="E57">
-        <v>2236.81</v>
+        <v>2210.24</v>
       </c>
       <c r="F57" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J57">
-        <v>2187.09</v>
+        <v>1963.27</v>
       </c>
       <c r="K57">
-        <v>71.63</v>
+        <v>66.83</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1798,25 +1876,25 @@
         <v>13</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C58">
-        <v>3150.57</v>
+        <v>3130.29</v>
       </c>
       <c r="D58">
         <v>888.7</v>
       </c>
       <c r="E58">
-        <v>2261.88</v>
+        <v>2241.59</v>
       </c>
       <c r="F58" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J58">
-        <v>2192.08</v>
+        <v>1976.52</v>
       </c>
       <c r="K58">
-        <v>71.64</v>
+        <v>67.06</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1824,13 +1902,25 @@
         <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C59">
+        <v>2986.71</v>
       </c>
       <c r="D59">
         <v>918.3200000000001</v>
       </c>
+      <c r="E59">
+        <v>2068.39</v>
+      </c>
       <c r="F59" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="J59">
+        <v>1980.7</v>
+      </c>
+      <c r="K59">
+        <v>67.16</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1838,13 +1928,25 @@
         <v>13</v>
       </c>
       <c r="B60" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C60">
+        <v>2487.29</v>
       </c>
       <c r="D60">
         <v>994.24</v>
       </c>
+      <c r="E60">
+        <v>1493.05</v>
+      </c>
       <c r="F60" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="J60">
+        <v>1959.5</v>
+      </c>
+      <c r="K60">
+        <v>66.84999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1852,13 +1954,25 @@
         <v>13</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C61">
+        <v>1906.71</v>
       </c>
       <c r="D61">
         <v>1108.81</v>
       </c>
+      <c r="E61">
+        <v>797.91</v>
+      </c>
       <c r="F61" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="J61">
+        <v>1911.1</v>
+      </c>
+      <c r="K61">
+        <v>65.81</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -1866,13 +1980,13 @@
         <v>13</v>
       </c>
       <c r="B62" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D62">
         <v>1187.54</v>
       </c>
       <c r="F62" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -1880,13 +1994,13 @@
         <v>13</v>
       </c>
       <c r="B63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D63">
         <v>903.4</v>
       </c>
       <c r="F63" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -1894,13 +2008,13 @@
         <v>13</v>
       </c>
       <c r="B64" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D64">
         <v>935.22</v>
       </c>
       <c r="F64" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -1908,19 +2022,19 @@
         <v>14</v>
       </c>
       <c r="B65" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C65">
-        <v>3335.29</v>
+        <v>3334.29</v>
       </c>
       <c r="D65">
         <v>1033.16</v>
       </c>
       <c r="E65">
-        <v>2302.13</v>
+        <v>2301.13</v>
       </c>
       <c r="F65" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G65">
         <v>0.96</v>
@@ -1932,10 +2046,10 @@
         <v>2170.25</v>
       </c>
       <c r="J65">
-        <v>2198.96</v>
+        <v>1926.7</v>
       </c>
       <c r="K65">
-        <v>71.47</v>
+        <v>65.94</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -1943,25 +2057,25 @@
         <v>14</v>
       </c>
       <c r="B66" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C66">
-        <v>3085.57</v>
+        <v>3059</v>
       </c>
       <c r="D66">
         <v>1049.43</v>
       </c>
       <c r="E66">
-        <v>2036.14</v>
+        <v>2009.57</v>
       </c>
       <c r="F66" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J66">
-        <v>2189.38</v>
+        <v>1929.89</v>
       </c>
       <c r="K66">
-        <v>71.15000000000001</v>
+        <v>65.93000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -1969,25 +2083,25 @@
         <v>14</v>
       </c>
       <c r="B67" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C67">
-        <v>3150.57</v>
+        <v>3130.29</v>
       </c>
       <c r="D67">
         <v>874.74</v>
       </c>
       <c r="E67">
-        <v>2275.83</v>
+        <v>2255.54</v>
       </c>
       <c r="F67" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J67">
-        <v>2194.18</v>
+        <v>1941.95</v>
       </c>
       <c r="K67">
-        <v>71.20999999999999</v>
+        <v>66.15000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -1995,13 +2109,25 @@
         <v>14</v>
       </c>
       <c r="B68" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C68">
+        <v>2986.71</v>
       </c>
       <c r="D68">
         <v>771.86</v>
       </c>
+      <c r="E68">
+        <v>2214.85</v>
+      </c>
       <c r="F68" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="J68">
+        <v>1951.7</v>
+      </c>
+      <c r="K68">
+        <v>66.44</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2009,13 +2135,25 @@
         <v>14</v>
       </c>
       <c r="B69" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C69">
+        <v>2487.29</v>
       </c>
       <c r="D69">
         <v>821.02</v>
       </c>
+      <c r="E69">
+        <v>1666.27</v>
+      </c>
       <c r="F69" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="J69">
+        <v>1941.85</v>
+      </c>
+      <c r="K69">
+        <v>66.45999999999999</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2023,13 +2161,25 @@
         <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C70">
+        <v>1906.71</v>
       </c>
       <c r="D70">
         <v>816.24</v>
       </c>
+      <c r="E70">
+        <v>1090.48</v>
+      </c>
       <c r="F70" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="J70">
+        <v>1913.47</v>
+      </c>
+      <c r="K70">
+        <v>66.15000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2037,13 +2187,13 @@
         <v>14</v>
       </c>
       <c r="B71" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D71">
         <v>1062.92</v>
       </c>
       <c r="F71" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2051,13 +2201,13 @@
         <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D72">
         <v>1051.94</v>
       </c>
       <c r="F72" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2065,13 +2215,13 @@
         <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D73">
         <v>778.59</v>
       </c>
       <c r="F73" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2079,13 +2229,13 @@
         <v>14</v>
       </c>
       <c r="B74" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D74">
         <v>859.84</v>
       </c>
       <c r="F74" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -2093,25 +2243,25 @@
         <v>14</v>
       </c>
       <c r="B75" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C75">
-        <v>3335.29</v>
+        <v>3334.29</v>
       </c>
       <c r="D75">
         <v>1033.16</v>
       </c>
       <c r="E75">
-        <v>2302.13</v>
+        <v>2301.13</v>
       </c>
       <c r="F75" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J75">
-        <v>2199.86</v>
+        <v>1925.98</v>
       </c>
       <c r="K75">
-        <v>71.09999999999999</v>
+        <v>66.23999999999999</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -2119,25 +2269,25 @@
         <v>14</v>
       </c>
       <c r="B76" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C76">
-        <v>3085.57</v>
+        <v>3059</v>
       </c>
       <c r="D76">
         <v>1049.43</v>
       </c>
       <c r="E76">
-        <v>2036.14</v>
+        <v>2009.57</v>
       </c>
       <c r="F76" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J76">
-        <v>2191.68</v>
+        <v>1928.59</v>
       </c>
       <c r="K76">
-        <v>70.84</v>
+        <v>66.22</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -2145,25 +2295,25 @@
         <v>14</v>
       </c>
       <c r="B77" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C77">
-        <v>3150.57</v>
+        <v>3130.29</v>
       </c>
       <c r="D77">
         <v>874.74</v>
       </c>
       <c r="E77">
-        <v>2275.83</v>
+        <v>2255.54</v>
       </c>
       <c r="F77" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J77">
-        <v>2195.69</v>
+        <v>1938.5</v>
       </c>
       <c r="K77">
-        <v>70.91</v>
+        <v>66.40000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -2171,13 +2321,25 @@
         <v>14</v>
       </c>
       <c r="B78" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C78">
+        <v>2986.71</v>
       </c>
       <c r="D78">
         <v>771.86</v>
       </c>
+      <c r="E78">
+        <v>2214.85</v>
+      </c>
       <c r="F78" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="J78">
+        <v>1946.63</v>
+      </c>
+      <c r="K78">
+        <v>66.63</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -2185,13 +2347,25 @@
         <v>14</v>
       </c>
       <c r="B79" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C79">
+        <v>2487.29</v>
       </c>
       <c r="D79">
         <v>821.02</v>
       </c>
+      <c r="E79">
+        <v>1666.27</v>
+      </c>
       <c r="F79" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="J79">
+        <v>1938.62</v>
+      </c>
+      <c r="K79">
+        <v>66.64</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -2199,13 +2373,25 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C80">
+        <v>1906.71</v>
       </c>
       <c r="D80">
         <v>816.24</v>
       </c>
+      <c r="E80">
+        <v>1090.48</v>
+      </c>
       <c r="F80" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="J80">
+        <v>1915.06</v>
+      </c>
+      <c r="K80">
+        <v>66.38</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -2213,13 +2399,13 @@
         <v>14</v>
       </c>
       <c r="B81" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D81">
         <v>1062.92</v>
       </c>
       <c r="F81" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -2227,13 +2413,13 @@
         <v>14</v>
       </c>
       <c r="B82" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D82">
         <v>1051.94</v>
       </c>
       <c r="F82" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -2241,13 +2427,13 @@
         <v>14</v>
       </c>
       <c r="B83" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D83">
         <v>778.59</v>
       </c>
       <c r="F83" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -2255,13 +2441,13 @@
         <v>14</v>
       </c>
       <c r="B84" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D84">
         <v>859.84</v>
       </c>
       <c r="F84" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -2269,19 +2455,19 @@
         <v>15</v>
       </c>
       <c r="B85" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C85">
-        <v>3085.57</v>
+        <v>3059</v>
       </c>
       <c r="D85">
         <v>973.3200000000001</v>
       </c>
       <c r="E85">
-        <v>2112.25</v>
+        <v>2085.68</v>
       </c>
       <c r="F85" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G85">
         <v>0.9</v>
@@ -2293,10 +2479,10 @@
         <v>2240.13</v>
       </c>
       <c r="J85">
-        <v>2191.89</v>
+        <v>1919.67</v>
       </c>
       <c r="K85">
-        <v>70.8</v>
+        <v>66.43000000000001</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -2304,25 +2490,25 @@
         <v>15</v>
       </c>
       <c r="B86" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C86">
-        <v>3150.57</v>
+        <v>3130.29</v>
       </c>
       <c r="D86">
         <v>871.89</v>
       </c>
       <c r="E86">
-        <v>2278.68</v>
+        <v>2258.4</v>
       </c>
       <c r="F86" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J86">
-        <v>2195.67</v>
+        <v>1928.58</v>
       </c>
       <c r="K86">
-        <v>70.86</v>
+        <v>66.58</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -2330,13 +2516,25 @@
         <v>15</v>
       </c>
       <c r="B87" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C87">
+        <v>2986.71</v>
       </c>
       <c r="D87">
         <v>734.15</v>
       </c>
+      <c r="E87">
+        <v>2252.56</v>
+      </c>
       <c r="F87" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="J87">
+        <v>1936.89</v>
+      </c>
+      <c r="K87">
+        <v>66.8</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -2344,13 +2542,25 @@
         <v>15</v>
       </c>
       <c r="B88" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C88">
+        <v>2487.29</v>
       </c>
       <c r="D88">
         <v>927.22</v>
       </c>
+      <c r="E88">
+        <v>1560.06</v>
+      </c>
       <c r="F88" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="J88">
+        <v>1927.47</v>
+      </c>
+      <c r="K88">
+        <v>66.7</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -2358,13 +2568,25 @@
         <v>15</v>
       </c>
       <c r="B89" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C89">
+        <v>1906.71</v>
       </c>
       <c r="D89">
         <v>932.99</v>
       </c>
+      <c r="E89">
+        <v>973.72</v>
+      </c>
       <c r="F89" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="J89">
+        <v>1904.21</v>
+      </c>
+      <c r="K89">
+        <v>66.31999999999999</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -2372,13 +2594,13 @@
         <v>15</v>
       </c>
       <c r="B90" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D90">
         <v>909.72</v>
       </c>
       <c r="F90" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -2386,13 +2608,13 @@
         <v>15</v>
       </c>
       <c r="B91" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D91">
         <v>718.38</v>
       </c>
       <c r="F91" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -2400,13 +2622,13 @@
         <v>15</v>
       </c>
       <c r="B92" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D92">
         <v>952.35</v>
       </c>
       <c r="F92" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -2414,13 +2636,13 @@
         <v>15</v>
       </c>
       <c r="B93" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D93">
         <v>1342.03</v>
       </c>
       <c r="F93" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -2428,13 +2650,13 @@
         <v>15</v>
       </c>
       <c r="B94" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D94">
         <v>1168.14</v>
       </c>
       <c r="F94" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -2442,25 +2664,25 @@
         <v>15</v>
       </c>
       <c r="B95" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C95">
-        <v>3085.57</v>
+        <v>3059</v>
       </c>
       <c r="D95">
         <v>973.3200000000001</v>
       </c>
       <c r="E95">
-        <v>2112.25</v>
+        <v>2085.68</v>
       </c>
       <c r="F95" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J95">
-        <v>2192.19</v>
+        <v>1908.53</v>
       </c>
       <c r="K95">
-        <v>70.76000000000001</v>
+        <v>66.36</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -2468,25 +2690,25 @@
         <v>15</v>
       </c>
       <c r="B96" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C96">
-        <v>3150.57</v>
+        <v>3130.29</v>
       </c>
       <c r="D96">
         <v>871.89</v>
       </c>
       <c r="E96">
-        <v>2278.68</v>
+        <v>2258.4</v>
       </c>
       <c r="F96" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J96">
-        <v>2195.65</v>
+        <v>1916.66</v>
       </c>
       <c r="K96">
-        <v>70.81999999999999</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -2494,13 +2716,25 @@
         <v>15</v>
       </c>
       <c r="B97" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C97">
+        <v>2986.71</v>
       </c>
       <c r="D97">
         <v>734.15</v>
       </c>
+      <c r="E97">
+        <v>2252.56</v>
+      </c>
       <c r="F97" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="J97">
+        <v>1924.3</v>
+      </c>
+      <c r="K97">
+        <v>66.7</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -2508,13 +2742,25 @@
         <v>15</v>
       </c>
       <c r="B98" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C98">
+        <v>2487.29</v>
       </c>
       <c r="D98">
         <v>927.22</v>
       </c>
+      <c r="E98">
+        <v>1560.06</v>
+      </c>
       <c r="F98" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="J98">
+        <v>1916.2</v>
+      </c>
+      <c r="K98">
+        <v>66.61</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -2522,13 +2768,25 @@
         <v>15</v>
       </c>
       <c r="B99" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C99">
+        <v>1906.71</v>
       </c>
       <c r="D99">
         <v>932.99</v>
       </c>
+      <c r="E99">
+        <v>973.72</v>
+      </c>
       <c r="F99" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="J99">
+        <v>1895.72</v>
+      </c>
+      <c r="K99">
+        <v>66.28</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -2536,13 +2794,13 @@
         <v>15</v>
       </c>
       <c r="B100" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D100">
         <v>909.72</v>
       </c>
       <c r="F100" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -2550,13 +2808,13 @@
         <v>15</v>
       </c>
       <c r="B101" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D101">
         <v>718.38</v>
       </c>
       <c r="F101" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -2564,13 +2822,13 @@
         <v>15</v>
       </c>
       <c r="B102" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D102">
         <v>952.35</v>
       </c>
       <c r="F102" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -2578,13 +2836,13 @@
         <v>15</v>
       </c>
       <c r="B103" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D103">
         <v>1342.03</v>
       </c>
       <c r="F103" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -2592,13 +2850,13 @@
         <v>15</v>
       </c>
       <c r="B104" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D104">
         <v>1168.14</v>
       </c>
       <c r="F104" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -2606,19 +2864,19 @@
         <v>16</v>
       </c>
       <c r="B105" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C105">
-        <v>3150.57</v>
+        <v>3130.29</v>
       </c>
       <c r="D105">
         <v>805.13</v>
       </c>
       <c r="E105">
-        <v>2345.44</v>
+        <v>2325.15</v>
       </c>
       <c r="F105" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G105">
         <v>0.97</v>
@@ -2630,10 +2888,10 @@
         <v>2278.17</v>
       </c>
       <c r="J105">
-        <v>2201.41</v>
+        <v>1904.85</v>
       </c>
       <c r="K105">
-        <v>70.95999999999999</v>
+        <v>66.45</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -2641,13 +2899,25 @@
         <v>16</v>
       </c>
       <c r="B106" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C106">
+        <v>2986.71</v>
       </c>
       <c r="D106">
         <v>759.37</v>
       </c>
+      <c r="E106">
+        <v>2227.35</v>
+      </c>
       <c r="F106" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="J106">
+        <v>1911.57</v>
+      </c>
+      <c r="K106">
+        <v>66.62</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -2655,13 +2925,25 @@
         <v>16</v>
       </c>
       <c r="B107" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C107">
+        <v>2487.29</v>
       </c>
       <c r="D107">
         <v>777.84</v>
       </c>
+      <c r="E107">
+        <v>1709.44</v>
+      </c>
       <c r="F107" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="J107">
+        <v>1907.45</v>
+      </c>
+      <c r="K107">
+        <v>66.66</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -2669,13 +2951,25 @@
         <v>16</v>
       </c>
       <c r="B108" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C108">
+        <v>1906.71</v>
       </c>
       <c r="D108">
         <v>859.05</v>
       </c>
+      <c r="E108">
+        <v>1047.66</v>
+      </c>
       <c r="F108" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="J108">
+        <v>1890.25</v>
+      </c>
+      <c r="K108">
+        <v>66.42</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -2683,13 +2977,13 @@
         <v>16</v>
       </c>
       <c r="B109" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D109">
         <v>841.3</v>
       </c>
       <c r="F109" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -2697,13 +2991,13 @@
         <v>16</v>
       </c>
       <c r="B110" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D110">
         <v>740.84</v>
       </c>
       <c r="F110" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -2711,13 +3005,13 @@
         <v>16</v>
       </c>
       <c r="B111" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D111">
         <v>1005.05</v>
       </c>
       <c r="F111" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -2725,13 +3019,13 @@
         <v>16</v>
       </c>
       <c r="B112" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D112">
         <v>1388.35</v>
       </c>
       <c r="F112" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -2739,13 +3033,13 @@
         <v>16</v>
       </c>
       <c r="B113" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D113">
         <v>1471.12</v>
       </c>
       <c r="F113" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -2753,13 +3047,13 @@
         <v>16</v>
       </c>
       <c r="B114" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D114">
         <v>1559.53</v>
       </c>
       <c r="F114" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -2767,25 +3061,25 @@
         <v>16</v>
       </c>
       <c r="B115" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C115">
-        <v>3150.57</v>
+        <v>3130.29</v>
       </c>
       <c r="D115">
         <v>805.13</v>
       </c>
       <c r="E115">
-        <v>2345.44</v>
+        <v>2325.15</v>
       </c>
       <c r="F115" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J115">
-        <v>2206.75</v>
+        <v>1898.78</v>
       </c>
       <c r="K115">
-        <v>71.09</v>
+        <v>66.58</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -2793,13 +3087,25 @@
         <v>16</v>
       </c>
       <c r="B116" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C116">
+        <v>2986.71</v>
       </c>
       <c r="D116">
         <v>759.37</v>
       </c>
+      <c r="E116">
+        <v>2227.35</v>
+      </c>
       <c r="F116" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="J116">
+        <v>1905.1</v>
+      </c>
+      <c r="K116">
+        <v>66.73</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -2807,13 +3113,25 @@
         <v>16</v>
       </c>
       <c r="B117" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C117">
+        <v>2487.29</v>
       </c>
       <c r="D117">
         <v>777.84</v>
       </c>
+      <c r="E117">
+        <v>1709.44</v>
+      </c>
       <c r="F117" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="J117">
+        <v>1901.4</v>
+      </c>
+      <c r="K117">
+        <v>66.77</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -2821,13 +3139,25 @@
         <v>16</v>
       </c>
       <c r="B118" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C118">
+        <v>1906.71</v>
       </c>
       <c r="D118">
         <v>859.05</v>
       </c>
+      <c r="E118">
+        <v>1047.66</v>
+      </c>
       <c r="F118" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="J118">
+        <v>1885.59</v>
+      </c>
+      <c r="K118">
+        <v>66.55</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -2835,13 +3165,13 @@
         <v>16</v>
       </c>
       <c r="B119" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D119">
         <v>841.3</v>
       </c>
       <c r="F119" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -2849,13 +3179,13 @@
         <v>16</v>
       </c>
       <c r="B120" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D120">
         <v>740.84</v>
       </c>
       <c r="F120" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -2863,13 +3193,13 @@
         <v>16</v>
       </c>
       <c r="B121" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D121">
         <v>1005.07</v>
       </c>
       <c r="F121" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -2877,13 +3207,13 @@
         <v>16</v>
       </c>
       <c r="B122" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D122">
         <v>1388.34</v>
       </c>
       <c r="F122" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -2891,13 +3221,13 @@
         <v>16</v>
       </c>
       <c r="B123" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D123">
         <v>1471.11</v>
       </c>
       <c r="F123" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -2905,13 +3235,13 @@
         <v>16</v>
       </c>
       <c r="B124" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D124">
         <v>1559.52</v>
       </c>
       <c r="F124" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -2919,13 +3249,19 @@
         <v>17</v>
       </c>
       <c r="B125" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C125">
+        <v>2986.71</v>
       </c>
       <c r="D125">
         <v>819.92</v>
       </c>
+      <c r="E125">
+        <v>2166.8</v>
+      </c>
       <c r="F125" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G125">
         <v>0.98</v>
@@ -2935,6 +3271,12 @@
       </c>
       <c r="I125">
         <v>2300.12</v>
+      </c>
+      <c r="J125">
+        <v>1890.71</v>
+      </c>
+      <c r="K125">
+        <v>66.66</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -2942,13 +3284,25 @@
         <v>17</v>
       </c>
       <c r="B126" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C126">
+        <v>2487.29</v>
       </c>
       <c r="D126">
         <v>987.1900000000001</v>
       </c>
+      <c r="E126">
+        <v>1500.09</v>
+      </c>
       <c r="F126" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="J126">
+        <v>1883.73</v>
+      </c>
+      <c r="K126">
+        <v>66.55</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -2956,13 +3310,25 @@
         <v>17</v>
       </c>
       <c r="B127" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C127">
+        <v>1906.71</v>
       </c>
       <c r="D127">
         <v>1056.7</v>
       </c>
+      <c r="E127">
+        <v>850.01</v>
+      </c>
       <c r="F127" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="J127">
+        <v>1865.6</v>
+      </c>
+      <c r="K127">
+        <v>66.16</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -2970,97 +3336,446 @@
         <v>17</v>
       </c>
       <c r="B128" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D128">
         <v>1105.66</v>
       </c>
       <c r="F128" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
       <c r="A129" t="s">
         <v>17</v>
       </c>
       <c r="B129" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D129">
         <v>1137.4</v>
       </c>
       <c r="F129" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
       <c r="A130" t="s">
         <v>17</v>
       </c>
       <c r="B130" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D130">
         <v>1184.36</v>
       </c>
       <c r="F130" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
       <c r="A131" t="s">
         <v>17</v>
       </c>
       <c r="B131" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D131">
         <v>1131.37</v>
       </c>
       <c r="F131" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
       <c r="A132" t="s">
         <v>17</v>
       </c>
       <c r="B132" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D132">
         <v>1206.46</v>
       </c>
       <c r="F132" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
       <c r="A133" t="s">
         <v>17</v>
       </c>
       <c r="B133" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D133">
         <v>1436.41</v>
       </c>
       <c r="F133" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
       <c r="A134" t="s">
         <v>17</v>
       </c>
       <c r="B134" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D134">
         <v>1675.37</v>
       </c>
       <c r="F134" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135" t="s">
+        <v>17</v>
+      </c>
+      <c r="B135" t="s">
+        <v>58</v>
+      </c>
+      <c r="C135">
+        <v>2986.71</v>
+      </c>
+      <c r="D135">
+        <v>817.88</v>
+      </c>
+      <c r="E135">
+        <v>2168.84</v>
+      </c>
+      <c r="F135" t="s">
+        <v>69</v>
+      </c>
+      <c r="J135">
+        <v>1870.83</v>
+      </c>
+      <c r="K135">
+        <v>66.27</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136" t="s">
+        <v>17</v>
+      </c>
+      <c r="B136" t="s">
+        <v>59</v>
+      </c>
+      <c r="C136">
+        <v>2487.29</v>
+      </c>
+      <c r="D136">
+        <v>997.1799999999999</v>
+      </c>
+      <c r="E136">
+        <v>1490.1</v>
+      </c>
+      <c r="F136" t="s">
+        <v>69</v>
+      </c>
+      <c r="J136">
+        <v>1864.37</v>
+      </c>
+      <c r="K136">
+        <v>66.16</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137" t="s">
+        <v>17</v>
+      </c>
+      <c r="B137" t="s">
+        <v>60</v>
+      </c>
+      <c r="C137">
+        <v>1906.71</v>
+      </c>
+      <c r="D137">
+        <v>1054.32</v>
+      </c>
+      <c r="E137">
+        <v>852.39</v>
+      </c>
+      <c r="F137" t="s">
+        <v>69</v>
+      </c>
+      <c r="J137">
+        <v>1847.51</v>
+      </c>
+      <c r="K137">
+        <v>65.81</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138" t="s">
+        <v>17</v>
+      </c>
+      <c r="B138" t="s">
+        <v>61</v>
+      </c>
+      <c r="D138">
+        <v>1103.52</v>
+      </c>
+      <c r="F138" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139" t="s">
+        <v>17</v>
+      </c>
+      <c r="B139" t="s">
+        <v>62</v>
+      </c>
+      <c r="D139">
+        <v>1135.3</v>
+      </c>
+      <c r="F139" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140" t="s">
+        <v>17</v>
+      </c>
+      <c r="B140" t="s">
+        <v>63</v>
+      </c>
+      <c r="D140">
+        <v>1182.54</v>
+      </c>
+      <c r="F140" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141" t="s">
+        <v>17</v>
+      </c>
+      <c r="B141" t="s">
+        <v>64</v>
+      </c>
+      <c r="D141">
+        <v>1129.77</v>
+      </c>
+      <c r="F141" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142" t="s">
+        <v>17</v>
+      </c>
+      <c r="B142" t="s">
+        <v>65</v>
+      </c>
+      <c r="D142">
+        <v>1206.62</v>
+      </c>
+      <c r="F142" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143" t="s">
+        <v>17</v>
+      </c>
+      <c r="B143" t="s">
+        <v>66</v>
+      </c>
+      <c r="D143">
+        <v>1405.3</v>
+      </c>
+      <c r="F143" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144" t="s">
+        <v>17</v>
+      </c>
+      <c r="B144" t="s">
         <v>67</v>
+      </c>
+      <c r="D144">
+        <v>1478.95</v>
+      </c>
+      <c r="F144" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145" t="s">
+        <v>18</v>
+      </c>
+      <c r="B145" t="s">
+        <v>59</v>
+      </c>
+      <c r="C145">
+        <v>2487.29</v>
+      </c>
+      <c r="D145">
+        <v>925.74</v>
+      </c>
+      <c r="E145">
+        <v>1561.54</v>
+      </c>
+      <c r="F145" t="s">
+        <v>69</v>
+      </c>
+      <c r="G145">
+        <v>1.02</v>
+      </c>
+      <c r="H145">
+        <v>75.89</v>
+      </c>
+      <c r="I145">
+        <v>2303.79</v>
+      </c>
+      <c r="J145">
+        <v>1842.82</v>
+      </c>
+      <c r="K145">
+        <v>65.76000000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146" t="s">
+        <v>18</v>
+      </c>
+      <c r="B146" t="s">
+        <v>60</v>
+      </c>
+      <c r="C146">
+        <v>1906.71</v>
+      </c>
+      <c r="D146">
+        <v>931.58</v>
+      </c>
+      <c r="E146">
+        <v>975.13</v>
+      </c>
+      <c r="F146" t="s">
+        <v>69</v>
+      </c>
+      <c r="J146">
+        <v>1828.82</v>
+      </c>
+      <c r="K146">
+        <v>65.52</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147" t="s">
+        <v>18</v>
+      </c>
+      <c r="B147" t="s">
+        <v>61</v>
+      </c>
+      <c r="D147">
+        <v>907.99</v>
+      </c>
+      <c r="F147" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148" t="s">
+        <v>18</v>
+      </c>
+      <c r="B148" t="s">
+        <v>62</v>
+      </c>
+      <c r="D148">
+        <v>715.21</v>
+      </c>
+      <c r="F148" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149" t="s">
+        <v>18</v>
+      </c>
+      <c r="B149" t="s">
+        <v>63</v>
+      </c>
+      <c r="D149">
+        <v>951.04</v>
+      </c>
+      <c r="F149" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150" t="s">
+        <v>18</v>
+      </c>
+      <c r="B150" t="s">
+        <v>64</v>
+      </c>
+      <c r="D150">
+        <v>1342.33</v>
+      </c>
+      <c r="F150" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151" t="s">
+        <v>18</v>
+      </c>
+      <c r="B151" t="s">
+        <v>65</v>
+      </c>
+      <c r="D151">
+        <v>1167.37</v>
+      </c>
+      <c r="F151" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152" t="s">
+        <v>18</v>
+      </c>
+      <c r="B152" t="s">
+        <v>66</v>
+      </c>
+      <c r="D152">
+        <v>1417.96</v>
+      </c>
+      <c r="F152" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153" t="s">
+        <v>18</v>
+      </c>
+      <c r="B153" t="s">
+        <v>67</v>
+      </c>
+      <c r="D153">
+        <v>1684.84</v>
+      </c>
+      <c r="F153" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154" t="s">
+        <v>18</v>
+      </c>
+      <c r="B154" t="s">
+        <v>68</v>
+      </c>
+      <c r="D154">
+        <v>1769.32</v>
+      </c>
+      <c r="F154" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 10.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="73">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -73,6 +73,9 @@
     <t>2021-02-06</t>
   </si>
   <si>
+    <t>2021-02-20</t>
+  </si>
+  <si>
     <t>03 May -- 09 May 2020</t>
   </si>
   <si>
@@ -221,6 +224,12 @@
   </si>
   <si>
     <t>11 Apr -- 17 Apr 2021</t>
+  </si>
+  <si>
+    <t>18 Apr -- 24 Apr 2021</t>
+  </si>
+  <si>
+    <t>25 Apr -- 01 May 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -581,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K154"/>
+  <dimension ref="A1:K164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -627,7 +636,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>1753.71</v>
@@ -639,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G2">
         <v>1.2</v>
@@ -656,7 +665,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>1426.86</v>
@@ -668,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -676,7 +685,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>1220.57</v>
@@ -688,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -696,7 +705,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>946.14</v>
@@ -708,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -716,7 +725,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>873.71</v>
@@ -728,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -736,7 +745,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>744.29</v>
@@ -748,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -756,7 +765,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8">
         <v>602.14</v>
@@ -768,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -776,7 +785,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9">
         <v>565.86</v>
@@ -788,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -796,7 +805,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>524.14</v>
@@ -808,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -816,7 +825,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11">
         <v>748.86</v>
@@ -828,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -836,7 +845,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12">
         <v>786.29</v>
@@ -848,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,7 +865,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13">
         <v>922</v>
@@ -868,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -876,7 +885,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14">
         <v>1140.43</v>
@@ -888,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -896,7 +905,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15">
         <v>1038.43</v>
@@ -908,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -916,7 +925,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16">
         <v>1007.43</v>
@@ -928,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -936,7 +945,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>973.4299999999999</v>
@@ -948,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -956,7 +965,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18">
         <v>894.5700000000001</v>
@@ -968,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -976,7 +985,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19">
         <v>846.4299999999999</v>
@@ -988,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -996,7 +1005,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20">
         <v>733.14</v>
@@ -1008,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1016,7 +1025,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21">
         <v>797.86</v>
@@ -1028,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1036,7 +1045,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22">
         <v>766.4299999999999</v>
@@ -1048,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1056,7 +1065,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23">
         <v>702.14</v>
@@ -1068,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1076,7 +1085,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C24">
         <v>714.29</v>
@@ -1088,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1096,7 +1105,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C25">
         <v>717.4299999999999</v>
@@ -1108,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1116,7 +1125,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C26">
         <v>821.5700000000001</v>
@@ -1128,7 +1137,7 @@
         <v>77.05</v>
       </c>
       <c r="F26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1136,7 +1145,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27">
         <v>819</v>
@@ -1148,7 +1157,7 @@
         <v>27.47</v>
       </c>
       <c r="F27" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1156,7 +1165,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C28">
         <v>994.86</v>
@@ -1168,7 +1177,7 @@
         <v>63.81</v>
       </c>
       <c r="F28" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1176,7 +1185,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C29">
         <v>1087.29</v>
@@ -1188,7 +1197,7 @@
         <v>253.66</v>
       </c>
       <c r="F29" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1196,7 +1205,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C30">
         <v>1466.29</v>
@@ -1208,7 +1217,7 @@
         <v>722.25</v>
       </c>
       <c r="F30" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1216,7 +1225,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C31">
         <v>1447.14</v>
@@ -1228,7 +1237,7 @@
         <v>597.87</v>
       </c>
       <c r="F31" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1236,7 +1245,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32">
         <v>2150.29</v>
@@ -1248,7 +1257,7 @@
         <v>1400.98</v>
       </c>
       <c r="F32" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1256,7 +1265,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C33">
         <v>2383.14</v>
@@ -1268,7 +1277,7 @@
         <v>1656.03</v>
       </c>
       <c r="F33" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1276,7 +1285,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C34">
         <v>2607.86</v>
@@ -1288,7 +1297,7 @@
         <v>1886.86</v>
       </c>
       <c r="F34" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1296,25 +1305,25 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C35">
-        <v>2376.86</v>
+        <v>2377.86</v>
       </c>
       <c r="D35">
         <v>821.3200000000001</v>
       </c>
       <c r="E35">
-        <v>1555.54</v>
+        <v>1556.54</v>
       </c>
       <c r="F35" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J35">
-        <v>1555.54</v>
+        <v>1556.54</v>
       </c>
       <c r="K35">
-        <v>65.45</v>
+        <v>65.45999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1322,25 +1331,25 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C36">
-        <v>2683.43</v>
+        <v>2694.29</v>
       </c>
       <c r="D36">
         <v>810.66</v>
       </c>
       <c r="E36">
-        <v>1872.77</v>
+        <v>1883.63</v>
       </c>
       <c r="F36" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J36">
-        <v>1714.15</v>
+        <v>1720.08</v>
       </c>
       <c r="K36">
-        <v>67.62</v>
+        <v>67.69</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1348,25 +1357,25 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C37">
-        <v>3148.14</v>
+        <v>3175.71</v>
       </c>
       <c r="D37">
         <v>841.13</v>
       </c>
       <c r="E37">
-        <v>2307.01</v>
+        <v>2334.58</v>
       </c>
       <c r="F37" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J37">
-        <v>1911.77</v>
+        <v>1924.91</v>
       </c>
       <c r="K37">
-        <v>69.51000000000001</v>
+        <v>69.63</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1374,25 +1383,25 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C38">
-        <v>3334.29</v>
+        <v>3339</v>
       </c>
       <c r="D38">
         <v>854.72</v>
       </c>
       <c r="E38">
-        <v>2479.56</v>
+        <v>2484.28</v>
       </c>
       <c r="F38" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J38">
-        <v>2053.72</v>
+        <v>2064.76</v>
       </c>
       <c r="K38">
-        <v>70.72</v>
+        <v>70.81999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1400,25 +1409,25 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C39">
-        <v>3059</v>
+        <v>3061.86</v>
       </c>
       <c r="D39">
         <v>873.89</v>
       </c>
       <c r="E39">
-        <v>2185.11</v>
+        <v>2187.97</v>
       </c>
       <c r="F39" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J39">
-        <v>2080</v>
+        <v>2089.4</v>
       </c>
       <c r="K39">
-        <v>70.86</v>
+        <v>70.95</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1426,25 +1435,25 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C40">
-        <v>3130.29</v>
+        <v>3134.14</v>
       </c>
       <c r="D40">
         <v>898.25</v>
       </c>
       <c r="E40">
-        <v>2232.04</v>
+        <v>2235.9</v>
       </c>
       <c r="F40" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J40">
-        <v>2105.34</v>
+        <v>2113.81</v>
       </c>
       <c r="K40">
-        <v>70.94</v>
+        <v>71.01000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1452,25 +1461,25 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C41">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D41">
         <v>914.21</v>
       </c>
       <c r="E41">
-        <v>2072.5</v>
+        <v>2076.36</v>
       </c>
       <c r="F41" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J41">
-        <v>2100.65</v>
+        <v>2108.46</v>
       </c>
       <c r="K41">
-        <v>70.72</v>
+        <v>70.79000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1478,25 +1487,25 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C42">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D42">
         <v>1001.97</v>
       </c>
       <c r="E42">
-        <v>1485.31</v>
+        <v>1491.31</v>
       </c>
       <c r="F42" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J42">
-        <v>2023.73</v>
+        <v>2031.32</v>
       </c>
       <c r="K42">
-        <v>69.34</v>
+        <v>69.42</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1504,25 +1513,25 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C43">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D43">
         <v>1707.62</v>
       </c>
       <c r="E43">
-        <v>199.1</v>
+        <v>142.81</v>
       </c>
       <c r="F43" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J43">
-        <v>1820.99</v>
+        <v>1821.49</v>
       </c>
       <c r="K43">
-        <v>62.8</v>
+        <v>62.56</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1530,13 +1539,13 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D44">
         <v>1647.52</v>
       </c>
       <c r="F44" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1544,19 +1553,19 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C45">
-        <v>2683.43</v>
+        <v>2694.29</v>
       </c>
       <c r="D45">
         <v>953.02</v>
       </c>
       <c r="E45">
-        <v>1730.41</v>
+        <v>1741.27</v>
       </c>
       <c r="F45" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G45">
         <v>1.21</v>
@@ -1568,10 +1577,10 @@
         <v>1497.31</v>
       </c>
       <c r="J45">
-        <v>1811.94</v>
+        <v>1813.46</v>
       </c>
       <c r="K45">
-        <v>62.97</v>
+        <v>62.77</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1579,25 +1588,25 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C46">
-        <v>3148.14</v>
+        <v>3175.71</v>
       </c>
       <c r="D46">
         <v>922.84</v>
       </c>
       <c r="E46">
-        <v>2225.31</v>
+        <v>2252.88</v>
       </c>
       <c r="F46" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J46">
-        <v>1849.51</v>
+        <v>1853.41</v>
       </c>
       <c r="K46">
-        <v>63.67</v>
+        <v>63.51</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1605,25 +1614,25 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C47">
-        <v>3334.29</v>
+        <v>3339</v>
       </c>
       <c r="D47">
         <v>854.67</v>
       </c>
       <c r="E47">
-        <v>2479.61</v>
+        <v>2484.33</v>
       </c>
       <c r="F47" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J47">
-        <v>1902.02</v>
+        <v>1905.99</v>
       </c>
       <c r="K47">
-        <v>64.56</v>
+        <v>64.42</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1631,25 +1640,25 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C48">
-        <v>3059</v>
+        <v>3061.86</v>
       </c>
       <c r="D48">
         <v>813.87</v>
       </c>
       <c r="E48">
-        <v>2245.13</v>
+        <v>2247.98</v>
       </c>
       <c r="F48" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J48">
-        <v>1928.42</v>
+        <v>1932.29</v>
       </c>
       <c r="K48">
-        <v>65.23999999999999</v>
+        <v>65.11</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -1657,25 +1666,25 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C49">
-        <v>3130.29</v>
+        <v>3134.14</v>
       </c>
       <c r="D49">
         <v>796.61</v>
       </c>
       <c r="E49">
-        <v>2333.67</v>
+        <v>2337.53</v>
       </c>
       <c r="F49" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J49">
-        <v>1957.36</v>
+        <v>1961.24</v>
       </c>
       <c r="K49">
-        <v>65.90000000000001</v>
+        <v>65.79000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -1683,25 +1692,25 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C50">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D50">
         <v>786.97</v>
       </c>
       <c r="E50">
-        <v>2199.75</v>
+        <v>2203.6</v>
       </c>
       <c r="F50" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J50">
-        <v>1973.52</v>
+        <v>1977.4</v>
       </c>
       <c r="K50">
-        <v>66.42</v>
+        <v>66.31</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -1709,25 +1718,25 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C51">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D51">
         <v>1022.85</v>
       </c>
       <c r="E51">
-        <v>1464.44</v>
+        <v>1470.44</v>
       </c>
       <c r="F51" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J51">
-        <v>1941.7</v>
+        <v>1945.71</v>
       </c>
       <c r="K51">
-        <v>65.95</v>
+        <v>65.86</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -1735,25 +1744,25 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C52">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D52">
         <v>772.28</v>
       </c>
       <c r="E52">
-        <v>1134.43</v>
+        <v>1078.15</v>
       </c>
       <c r="F52" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J52">
-        <v>1894.22</v>
+        <v>1894.68</v>
       </c>
       <c r="K52">
-        <v>65.56999999999999</v>
+        <v>65.41</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1761,13 +1770,13 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D53">
         <v>767.64</v>
       </c>
       <c r="F53" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1775,13 +1784,13 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D54">
         <v>753.39</v>
       </c>
       <c r="F54" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1789,19 +1798,19 @@
         <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C55">
-        <v>3148.14</v>
+        <v>3175.71</v>
       </c>
       <c r="D55">
         <v>806.17</v>
       </c>
       <c r="E55">
-        <v>2341.97</v>
+        <v>2369.54</v>
       </c>
       <c r="F55" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G55">
         <v>1.11</v>
@@ -1813,10 +1822,10 @@
         <v>1822.4</v>
       </c>
       <c r="J55">
-        <v>1919.09</v>
+        <v>1921.06</v>
       </c>
       <c r="K55">
-        <v>66.06</v>
+        <v>65.92</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1824,25 +1833,25 @@
         <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C56">
-        <v>3334.29</v>
+        <v>3339</v>
       </c>
       <c r="D56">
         <v>822.76</v>
       </c>
       <c r="E56">
-        <v>2511.53</v>
+        <v>2516.24</v>
       </c>
       <c r="F56" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J56">
-        <v>1950.27</v>
+        <v>1952.39</v>
       </c>
       <c r="K56">
-        <v>66.55</v>
+        <v>66.42</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1850,25 +1859,25 @@
         <v>13</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C57">
-        <v>3059</v>
+        <v>3061.86</v>
       </c>
       <c r="D57">
         <v>848.76</v>
       </c>
       <c r="E57">
-        <v>2210.24</v>
+        <v>2213.1</v>
       </c>
       <c r="F57" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J57">
-        <v>1963.27</v>
+        <v>1965.42</v>
       </c>
       <c r="K57">
-        <v>66.83</v>
+        <v>66.70999999999999</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1876,25 +1885,25 @@
         <v>13</v>
       </c>
       <c r="B58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C58">
-        <v>3130.29</v>
+        <v>3134.14</v>
       </c>
       <c r="D58">
         <v>888.7</v>
       </c>
       <c r="E58">
-        <v>2241.59</v>
+        <v>2245.45</v>
       </c>
       <c r="F58" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J58">
-        <v>1976.52</v>
+        <v>1978.76</v>
       </c>
       <c r="K58">
-        <v>67.06</v>
+        <v>66.94</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1902,25 +1911,25 @@
         <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C59">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D59">
         <v>918.3200000000001</v>
       </c>
       <c r="E59">
-        <v>2068.39</v>
+        <v>2072.25</v>
       </c>
       <c r="F59" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J59">
-        <v>1980.7</v>
+        <v>1983.01</v>
       </c>
       <c r="K59">
-        <v>67.16</v>
+        <v>67.05</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1928,25 +1937,25 @@
         <v>13</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C60">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D60">
         <v>994.24</v>
       </c>
       <c r="E60">
-        <v>1493.05</v>
+        <v>1499.05</v>
       </c>
       <c r="F60" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J60">
-        <v>1959.5</v>
+        <v>1961.96</v>
       </c>
       <c r="K60">
-        <v>66.84999999999999</v>
+        <v>66.75</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1954,25 +1963,25 @@
         <v>13</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C61">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D61">
         <v>1108.81</v>
       </c>
       <c r="E61">
-        <v>797.91</v>
+        <v>741.62</v>
       </c>
       <c r="F61" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J61">
-        <v>1911.1</v>
+        <v>1911.12</v>
       </c>
       <c r="K61">
-        <v>65.81</v>
+        <v>65.64</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -1980,13 +1989,13 @@
         <v>13</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D62">
         <v>1187.54</v>
       </c>
       <c r="F62" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -1994,13 +2003,13 @@
         <v>13</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D63">
         <v>903.4</v>
       </c>
       <c r="F63" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2008,13 +2017,13 @@
         <v>13</v>
       </c>
       <c r="B64" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D64">
         <v>935.22</v>
       </c>
       <c r="F64" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2022,19 +2031,19 @@
         <v>14</v>
       </c>
       <c r="B65" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C65">
-        <v>3334.29</v>
+        <v>3339</v>
       </c>
       <c r="D65">
         <v>1033.16</v>
       </c>
       <c r="E65">
-        <v>2301.13</v>
+        <v>2305.84</v>
       </c>
       <c r="F65" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G65">
         <v>0.96</v>
@@ -2046,10 +2055,10 @@
         <v>2170.25</v>
       </c>
       <c r="J65">
-        <v>1926.7</v>
+        <v>1926.91</v>
       </c>
       <c r="K65">
-        <v>65.94</v>
+        <v>65.78</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2057,25 +2066,25 @@
         <v>14</v>
       </c>
       <c r="B66" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C66">
-        <v>3059</v>
+        <v>3061.86</v>
       </c>
       <c r="D66">
         <v>1049.43</v>
       </c>
       <c r="E66">
-        <v>2009.57</v>
+        <v>2012.43</v>
       </c>
       <c r="F66" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J66">
-        <v>1929.89</v>
+        <v>1930.19</v>
       </c>
       <c r="K66">
-        <v>65.93000000000001</v>
+        <v>65.77</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2083,25 +2092,25 @@
         <v>14</v>
       </c>
       <c r="B67" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C67">
-        <v>3130.29</v>
+        <v>3134.14</v>
       </c>
       <c r="D67">
         <v>874.74</v>
       </c>
       <c r="E67">
-        <v>2255.54</v>
+        <v>2259.4</v>
       </c>
       <c r="F67" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J67">
-        <v>1941.95</v>
+        <v>1942.39</v>
       </c>
       <c r="K67">
-        <v>66.15000000000001</v>
+        <v>66.01000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2109,25 +2118,25 @@
         <v>14</v>
       </c>
       <c r="B68" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C68">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D68">
         <v>771.86</v>
       </c>
       <c r="E68">
-        <v>2214.85</v>
+        <v>2218.71</v>
       </c>
       <c r="F68" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J68">
-        <v>1951.7</v>
+        <v>1952.26</v>
       </c>
       <c r="K68">
-        <v>66.44</v>
+        <v>66.3</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2135,25 +2144,25 @@
         <v>14</v>
       </c>
       <c r="B69" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C69">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D69">
         <v>821.02</v>
       </c>
       <c r="E69">
-        <v>1666.27</v>
+        <v>1672.27</v>
       </c>
       <c r="F69" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J69">
-        <v>1941.85</v>
+        <v>1942.6</v>
       </c>
       <c r="K69">
-        <v>66.45999999999999</v>
+        <v>66.33</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2161,25 +2170,25 @@
         <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C70">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D70">
         <v>816.24</v>
       </c>
       <c r="E70">
-        <v>1090.48</v>
+        <v>1034.19</v>
       </c>
       <c r="F70" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J70">
-        <v>1913.47</v>
+        <v>1912.32</v>
       </c>
       <c r="K70">
-        <v>66.15000000000001</v>
+        <v>65.98</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2187,13 +2196,13 @@
         <v>14</v>
       </c>
       <c r="B71" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D71">
         <v>1062.92</v>
       </c>
       <c r="F71" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2201,13 +2210,13 @@
         <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D72">
         <v>1051.94</v>
       </c>
       <c r="F72" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2215,13 +2224,13 @@
         <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D73">
         <v>778.59</v>
       </c>
       <c r="F73" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2229,13 +2238,13 @@
         <v>14</v>
       </c>
       <c r="B74" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D74">
         <v>859.84</v>
       </c>
       <c r="F74" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -2243,25 +2252,25 @@
         <v>14</v>
       </c>
       <c r="B75" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C75">
-        <v>3334.29</v>
+        <v>3339</v>
       </c>
       <c r="D75">
         <v>1033.16</v>
       </c>
       <c r="E75">
-        <v>2301.13</v>
+        <v>2305.84</v>
       </c>
       <c r="F75" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J75">
-        <v>1925.98</v>
+        <v>1925.02</v>
       </c>
       <c r="K75">
-        <v>66.23999999999999</v>
+        <v>66.08</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -2269,25 +2278,25 @@
         <v>14</v>
       </c>
       <c r="B76" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C76">
-        <v>3059</v>
+        <v>3061.86</v>
       </c>
       <c r="D76">
         <v>1049.43</v>
       </c>
       <c r="E76">
-        <v>2009.57</v>
+        <v>2012.43</v>
       </c>
       <c r="F76" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J76">
-        <v>1928.59</v>
+        <v>1927.75</v>
       </c>
       <c r="K76">
-        <v>66.22</v>
+        <v>66.06999999999999</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -2295,25 +2304,25 @@
         <v>14</v>
       </c>
       <c r="B77" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C77">
-        <v>3130.29</v>
+        <v>3134.14</v>
       </c>
       <c r="D77">
         <v>874.74</v>
       </c>
       <c r="E77">
-        <v>2255.54</v>
+        <v>2259.4</v>
       </c>
       <c r="F77" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J77">
-        <v>1938.5</v>
+        <v>1937.8</v>
       </c>
       <c r="K77">
-        <v>66.40000000000001</v>
+        <v>66.25</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -2321,25 +2330,25 @@
         <v>14</v>
       </c>
       <c r="B78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C78">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D78">
         <v>771.86</v>
       </c>
       <c r="E78">
-        <v>2214.85</v>
+        <v>2218.71</v>
       </c>
       <c r="F78" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J78">
-        <v>1946.63</v>
+        <v>1946.06</v>
       </c>
       <c r="K78">
-        <v>66.63</v>
+        <v>66.48</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -2347,25 +2356,25 @@
         <v>14</v>
       </c>
       <c r="B79" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C79">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D79">
         <v>821.02</v>
       </c>
       <c r="E79">
-        <v>1666.27</v>
+        <v>1672.27</v>
       </c>
       <c r="F79" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J79">
-        <v>1938.62</v>
+        <v>1938.24</v>
       </c>
       <c r="K79">
-        <v>66.64</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -2373,25 +2382,25 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C80">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D80">
         <v>816.24</v>
       </c>
       <c r="E80">
-        <v>1090.48</v>
+        <v>1034.19</v>
       </c>
       <c r="F80" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J80">
-        <v>1915.06</v>
+        <v>1913.12</v>
       </c>
       <c r="K80">
-        <v>66.38</v>
+        <v>66.20999999999999</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -2399,13 +2408,13 @@
         <v>14</v>
       </c>
       <c r="B81" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D81">
         <v>1062.92</v>
       </c>
       <c r="F81" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -2413,13 +2422,13 @@
         <v>14</v>
       </c>
       <c r="B82" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D82">
         <v>1051.94</v>
       </c>
       <c r="F82" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -2427,13 +2436,13 @@
         <v>14</v>
       </c>
       <c r="B83" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D83">
         <v>778.59</v>
       </c>
       <c r="F83" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -2441,13 +2450,13 @@
         <v>14</v>
       </c>
       <c r="B84" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D84">
         <v>859.84</v>
       </c>
       <c r="F84" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -2455,19 +2464,19 @@
         <v>15</v>
       </c>
       <c r="B85" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C85">
-        <v>3059</v>
+        <v>3061.86</v>
       </c>
       <c r="D85">
         <v>973.3200000000001</v>
       </c>
       <c r="E85">
-        <v>2085.68</v>
+        <v>2088.54</v>
       </c>
       <c r="F85" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G85">
         <v>0.9</v>
@@ -2479,10 +2488,10 @@
         <v>2240.13</v>
       </c>
       <c r="J85">
-        <v>1919.67</v>
+        <v>1917.87</v>
       </c>
       <c r="K85">
-        <v>66.43000000000001</v>
+        <v>66.26000000000001</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -2490,25 +2499,25 @@
         <v>15</v>
       </c>
       <c r="B86" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C86">
-        <v>3130.29</v>
+        <v>3134.14</v>
       </c>
       <c r="D86">
         <v>871.89</v>
       </c>
       <c r="E86">
-        <v>2258.4</v>
+        <v>2262.25</v>
       </c>
       <c r="F86" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J86">
-        <v>1928.58</v>
+        <v>1926.93</v>
       </c>
       <c r="K86">
-        <v>66.58</v>
+        <v>66.42</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -2516,25 +2525,25 @@
         <v>15</v>
       </c>
       <c r="B87" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C87">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D87">
         <v>734.15</v>
       </c>
       <c r="E87">
-        <v>2252.56</v>
+        <v>2256.42</v>
       </c>
       <c r="F87" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J87">
-        <v>1936.89</v>
+        <v>1935.38</v>
       </c>
       <c r="K87">
-        <v>66.8</v>
+        <v>66.65000000000001</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -2542,25 +2551,25 @@
         <v>15</v>
       </c>
       <c r="B88" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C88">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D88">
         <v>927.22</v>
       </c>
       <c r="E88">
-        <v>1560.06</v>
+        <v>1566.06</v>
       </c>
       <c r="F88" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J88">
-        <v>1927.47</v>
+        <v>1926.14</v>
       </c>
       <c r="K88">
-        <v>66.7</v>
+        <v>66.55</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -2568,25 +2577,25 @@
         <v>15</v>
       </c>
       <c r="B89" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C89">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D89">
         <v>932.99</v>
       </c>
       <c r="E89">
-        <v>973.72</v>
+        <v>917.4299999999999</v>
       </c>
       <c r="F89" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J89">
-        <v>1904.21</v>
+        <v>1901.54</v>
       </c>
       <c r="K89">
-        <v>66.31999999999999</v>
+        <v>66.14</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -2594,13 +2603,13 @@
         <v>15</v>
       </c>
       <c r="B90" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D90">
         <v>909.72</v>
       </c>
       <c r="F90" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -2608,13 +2617,13 @@
         <v>15</v>
       </c>
       <c r="B91" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D91">
         <v>718.38</v>
       </c>
       <c r="F91" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -2622,13 +2631,13 @@
         <v>15</v>
       </c>
       <c r="B92" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D92">
         <v>952.35</v>
       </c>
       <c r="F92" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -2636,13 +2645,13 @@
         <v>15</v>
       </c>
       <c r="B93" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D93">
         <v>1342.03</v>
       </c>
       <c r="F93" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -2650,13 +2659,13 @@
         <v>15</v>
       </c>
       <c r="B94" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D94">
         <v>1168.14</v>
       </c>
       <c r="F94" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -2664,25 +2673,25 @@
         <v>15</v>
       </c>
       <c r="B95" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C95">
-        <v>3059</v>
+        <v>3061.86</v>
       </c>
       <c r="D95">
         <v>973.3200000000001</v>
       </c>
       <c r="E95">
-        <v>2085.68</v>
+        <v>2088.54</v>
       </c>
       <c r="F95" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J95">
-        <v>1908.53</v>
+        <v>1905.99</v>
       </c>
       <c r="K95">
-        <v>66.36</v>
+        <v>66.19</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -2690,25 +2699,25 @@
         <v>15</v>
       </c>
       <c r="B96" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C96">
-        <v>3130.29</v>
+        <v>3134.14</v>
       </c>
       <c r="D96">
         <v>871.89</v>
       </c>
       <c r="E96">
-        <v>2258.4</v>
+        <v>2262.25</v>
       </c>
       <c r="F96" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J96">
-        <v>1916.66</v>
+        <v>1914.28</v>
       </c>
       <c r="K96">
-        <v>66.5</v>
+        <v>66.33</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -2716,25 +2725,25 @@
         <v>15</v>
       </c>
       <c r="B97" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C97">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D97">
         <v>734.15</v>
       </c>
       <c r="E97">
-        <v>2252.56</v>
+        <v>2256.42</v>
       </c>
       <c r="F97" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J97">
-        <v>1924.3</v>
+        <v>1922.05</v>
       </c>
       <c r="K97">
-        <v>66.7</v>
+        <v>66.53</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -2742,25 +2751,25 @@
         <v>15</v>
       </c>
       <c r="B98" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C98">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D98">
         <v>927.22</v>
       </c>
       <c r="E98">
-        <v>1560.06</v>
+        <v>1566.06</v>
       </c>
       <c r="F98" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J98">
-        <v>1916.2</v>
+        <v>1914.14</v>
       </c>
       <c r="K98">
-        <v>66.61</v>
+        <v>66.45</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -2768,25 +2777,25 @@
         <v>15</v>
       </c>
       <c r="B99" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C99">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D99">
         <v>932.99</v>
       </c>
       <c r="E99">
-        <v>973.72</v>
+        <v>917.4299999999999</v>
       </c>
       <c r="F99" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J99">
-        <v>1895.72</v>
+        <v>1892.48</v>
       </c>
       <c r="K99">
-        <v>66.28</v>
+        <v>66.08</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -2794,13 +2803,13 @@
         <v>15</v>
       </c>
       <c r="B100" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D100">
         <v>909.72</v>
       </c>
       <c r="F100" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -2808,13 +2817,13 @@
         <v>15</v>
       </c>
       <c r="B101" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D101">
         <v>718.38</v>
       </c>
       <c r="F101" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -2822,13 +2831,13 @@
         <v>15</v>
       </c>
       <c r="B102" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D102">
         <v>952.35</v>
       </c>
       <c r="F102" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -2836,13 +2845,13 @@
         <v>15</v>
       </c>
       <c r="B103" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D103">
         <v>1342.03</v>
       </c>
       <c r="F103" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -2850,13 +2859,13 @@
         <v>15</v>
       </c>
       <c r="B104" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D104">
         <v>1168.14</v>
       </c>
       <c r="F104" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -2864,19 +2873,19 @@
         <v>16</v>
       </c>
       <c r="B105" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C105">
-        <v>3130.29</v>
+        <v>3134.14</v>
       </c>
       <c r="D105">
         <v>805.13</v>
       </c>
       <c r="E105">
-        <v>2325.15</v>
+        <v>2329.01</v>
       </c>
       <c r="F105" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G105">
         <v>0.97</v>
@@ -2888,10 +2897,10 @@
         <v>2278.17</v>
       </c>
       <c r="J105">
-        <v>1904.85</v>
+        <v>1901.76</v>
       </c>
       <c r="K105">
-        <v>66.45</v>
+        <v>66.26000000000001</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -2899,25 +2908,25 @@
         <v>16</v>
       </c>
       <c r="B106" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C106">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D106">
         <v>759.37</v>
       </c>
       <c r="E106">
-        <v>2227.35</v>
+        <v>2231.2</v>
       </c>
       <c r="F106" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J106">
-        <v>1911.57</v>
+        <v>1908.63</v>
       </c>
       <c r="K106">
-        <v>66.62</v>
+        <v>66.43000000000001</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -2925,25 +2934,25 @@
         <v>16</v>
       </c>
       <c r="B107" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C107">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D107">
         <v>777.84</v>
       </c>
       <c r="E107">
-        <v>1709.44</v>
+        <v>1715.44</v>
       </c>
       <c r="F107" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J107">
-        <v>1907.45</v>
+        <v>1904.68</v>
       </c>
       <c r="K107">
-        <v>66.66</v>
+        <v>66.48</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -2951,25 +2960,25 @@
         <v>16</v>
       </c>
       <c r="B108" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C108">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D108">
         <v>859.05</v>
       </c>
       <c r="E108">
-        <v>1047.66</v>
+        <v>991.38</v>
       </c>
       <c r="F108" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J108">
-        <v>1890.25</v>
+        <v>1886.42</v>
       </c>
       <c r="K108">
-        <v>66.42</v>
+        <v>66.22</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -2977,13 +2986,13 @@
         <v>16</v>
       </c>
       <c r="B109" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D109">
         <v>841.3</v>
       </c>
       <c r="F109" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -2991,13 +3000,13 @@
         <v>16</v>
       </c>
       <c r="B110" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D110">
         <v>740.84</v>
       </c>
       <c r="F110" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -3005,13 +3014,13 @@
         <v>16</v>
       </c>
       <c r="B111" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D111">
         <v>1005.05</v>
       </c>
       <c r="F111" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -3019,13 +3028,13 @@
         <v>16</v>
       </c>
       <c r="B112" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D112">
         <v>1388.35</v>
       </c>
       <c r="F112" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -3033,13 +3042,13 @@
         <v>16</v>
       </c>
       <c r="B113" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D113">
         <v>1471.12</v>
       </c>
       <c r="F113" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -3047,13 +3056,13 @@
         <v>16</v>
       </c>
       <c r="B114" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D114">
         <v>1559.53</v>
       </c>
       <c r="F114" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -3061,25 +3070,25 @@
         <v>16</v>
       </c>
       <c r="B115" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C115">
-        <v>3130.29</v>
+        <v>3134.14</v>
       </c>
       <c r="D115">
         <v>805.13</v>
       </c>
       <c r="E115">
-        <v>2325.15</v>
+        <v>2329.01</v>
       </c>
       <c r="F115" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J115">
-        <v>1898.78</v>
+        <v>1895.1</v>
       </c>
       <c r="K115">
-        <v>66.58</v>
+        <v>66.38</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -3087,25 +3096,25 @@
         <v>16</v>
       </c>
       <c r="B116" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C116">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D116">
         <v>759.37</v>
       </c>
       <c r="E116">
-        <v>2227.35</v>
+        <v>2231.2</v>
       </c>
       <c r="F116" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J116">
-        <v>1905.1</v>
+        <v>1901.56</v>
       </c>
       <c r="K116">
-        <v>66.73</v>
+        <v>66.54000000000001</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -3113,25 +3122,25 @@
         <v>16</v>
       </c>
       <c r="B117" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C117">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D117">
         <v>777.84</v>
       </c>
       <c r="E117">
-        <v>1709.44</v>
+        <v>1715.44</v>
       </c>
       <c r="F117" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J117">
-        <v>1901.4</v>
+        <v>1898.05</v>
       </c>
       <c r="K117">
-        <v>66.77</v>
+        <v>66.58</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -3139,25 +3148,25 @@
         <v>16</v>
       </c>
       <c r="B118" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C118">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D118">
         <v>859.05</v>
       </c>
       <c r="E118">
-        <v>1047.66</v>
+        <v>991.38</v>
       </c>
       <c r="F118" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J118">
-        <v>1885.59</v>
+        <v>1881.26</v>
       </c>
       <c r="K118">
-        <v>66.55</v>
+        <v>66.34</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -3165,13 +3174,13 @@
         <v>16</v>
       </c>
       <c r="B119" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D119">
         <v>841.3</v>
       </c>
       <c r="F119" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -3179,13 +3188,13 @@
         <v>16</v>
       </c>
       <c r="B120" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D120">
         <v>740.84</v>
       </c>
       <c r="F120" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -3193,13 +3202,13 @@
         <v>16</v>
       </c>
       <c r="B121" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D121">
         <v>1005.07</v>
       </c>
       <c r="F121" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -3207,13 +3216,13 @@
         <v>16</v>
       </c>
       <c r="B122" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D122">
         <v>1388.34</v>
       </c>
       <c r="F122" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -3221,13 +3230,13 @@
         <v>16</v>
       </c>
       <c r="B123" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D123">
         <v>1471.11</v>
       </c>
       <c r="F123" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -3235,13 +3244,13 @@
         <v>16</v>
       </c>
       <c r="B124" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D124">
         <v>1559.52</v>
       </c>
       <c r="F124" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -3249,19 +3258,19 @@
         <v>17</v>
       </c>
       <c r="B125" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C125">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D125">
         <v>819.92</v>
       </c>
       <c r="E125">
-        <v>2166.8</v>
+        <v>2170.65</v>
       </c>
       <c r="F125" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G125">
         <v>0.98</v>
@@ -3273,10 +3282,10 @@
         <v>2300.12</v>
       </c>
       <c r="J125">
-        <v>1890.71</v>
+        <v>1886.52</v>
       </c>
       <c r="K125">
-        <v>66.66</v>
+        <v>66.45999999999999</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -3284,25 +3293,25 @@
         <v>17</v>
       </c>
       <c r="B126" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C126">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D126">
         <v>987.1900000000001</v>
       </c>
       <c r="E126">
-        <v>1500.09</v>
+        <v>1506.09</v>
       </c>
       <c r="F126" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J126">
-        <v>1883.73</v>
+        <v>1879.73</v>
       </c>
       <c r="K126">
-        <v>66.55</v>
+        <v>66.34999999999999</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -3310,25 +3319,25 @@
         <v>17</v>
       </c>
       <c r="B127" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C127">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D127">
         <v>1056.7</v>
       </c>
       <c r="E127">
-        <v>850.01</v>
+        <v>793.73</v>
       </c>
       <c r="F127" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J127">
-        <v>1865.6</v>
+        <v>1860.67</v>
       </c>
       <c r="K127">
-        <v>66.16</v>
+        <v>65.94</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -3336,13 +3345,13 @@
         <v>17</v>
       </c>
       <c r="B128" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D128">
         <v>1105.66</v>
       </c>
       <c r="F128" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -3350,13 +3359,13 @@
         <v>17</v>
       </c>
       <c r="B129" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D129">
         <v>1137.4</v>
       </c>
       <c r="F129" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -3364,13 +3373,13 @@
         <v>17</v>
       </c>
       <c r="B130" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D130">
         <v>1184.36</v>
       </c>
       <c r="F130" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -3378,13 +3387,13 @@
         <v>17</v>
       </c>
       <c r="B131" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D131">
         <v>1131.37</v>
       </c>
       <c r="F131" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -3392,13 +3401,13 @@
         <v>17</v>
       </c>
       <c r="B132" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D132">
         <v>1206.46</v>
       </c>
       <c r="F132" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -3406,13 +3415,13 @@
         <v>17</v>
       </c>
       <c r="B133" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D133">
         <v>1436.41</v>
       </c>
       <c r="F133" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -3420,13 +3429,13 @@
         <v>17</v>
       </c>
       <c r="B134" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D134">
         <v>1675.37</v>
       </c>
       <c r="F134" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -3434,25 +3443,25 @@
         <v>17</v>
       </c>
       <c r="B135" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C135">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D135">
         <v>817.88</v>
       </c>
       <c r="E135">
-        <v>2168.84</v>
+        <v>2172.69</v>
       </c>
       <c r="F135" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J135">
-        <v>1870.83</v>
+        <v>1866.05</v>
       </c>
       <c r="K135">
-        <v>66.27</v>
+        <v>66.05</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -3460,25 +3469,25 @@
         <v>17</v>
       </c>
       <c r="B136" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C136">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D136">
         <v>997.1799999999999</v>
       </c>
       <c r="E136">
-        <v>1490.1</v>
+        <v>1496.1</v>
       </c>
       <c r="F136" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J136">
-        <v>1864.37</v>
+        <v>1859.78</v>
       </c>
       <c r="K136">
-        <v>66.16</v>
+        <v>65.95</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -3486,25 +3495,25 @@
         <v>17</v>
       </c>
       <c r="B137" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C137">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D137">
         <v>1054.32</v>
       </c>
       <c r="E137">
-        <v>852.39</v>
+        <v>796.11</v>
       </c>
       <c r="F137" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J137">
-        <v>1847.51</v>
+        <v>1842.06</v>
       </c>
       <c r="K137">
-        <v>65.81</v>
+        <v>65.56999999999999</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -3512,13 +3521,13 @@
         <v>17</v>
       </c>
       <c r="B138" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D138">
         <v>1103.52</v>
       </c>
       <c r="F138" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -3526,13 +3535,13 @@
         <v>17</v>
       </c>
       <c r="B139" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D139">
         <v>1135.3</v>
       </c>
       <c r="F139" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -3540,13 +3549,13 @@
         <v>17</v>
       </c>
       <c r="B140" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D140">
         <v>1182.54</v>
       </c>
       <c r="F140" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -3554,13 +3563,13 @@
         <v>17</v>
       </c>
       <c r="B141" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D141">
         <v>1129.77</v>
       </c>
       <c r="F141" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -3568,13 +3577,13 @@
         <v>17</v>
       </c>
       <c r="B142" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D142">
         <v>1206.62</v>
       </c>
       <c r="F142" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -3582,13 +3591,13 @@
         <v>17</v>
       </c>
       <c r="B143" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D143">
         <v>1405.3</v>
       </c>
       <c r="F143" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -3596,13 +3605,13 @@
         <v>17</v>
       </c>
       <c r="B144" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D144">
         <v>1478.95</v>
       </c>
       <c r="F144" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -3610,19 +3619,19 @@
         <v>18</v>
       </c>
       <c r="B145" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C145">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D145">
         <v>925.74</v>
       </c>
       <c r="E145">
-        <v>1561.54</v>
+        <v>1567.54</v>
       </c>
       <c r="F145" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G145">
         <v>1.02</v>
@@ -3634,10 +3643,10 @@
         <v>2303.79</v>
       </c>
       <c r="J145">
-        <v>1842.82</v>
+        <v>1837.56</v>
       </c>
       <c r="K145">
-        <v>65.76000000000001</v>
+        <v>65.52</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -3645,25 +3654,25 @@
         <v>18</v>
       </c>
       <c r="B146" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C146">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D146">
         <v>931.58</v>
       </c>
       <c r="E146">
-        <v>975.13</v>
+        <v>918.85</v>
       </c>
       <c r="F146" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J146">
-        <v>1828.82</v>
+        <v>1822.74</v>
       </c>
       <c r="K146">
-        <v>65.52</v>
+        <v>65.27</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -3671,13 +3680,13 @@
         <v>18</v>
       </c>
       <c r="B147" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D147">
         <v>907.99</v>
       </c>
       <c r="F147" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -3685,13 +3694,13 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D148">
         <v>715.21</v>
       </c>
       <c r="F148" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -3699,13 +3708,13 @@
         <v>18</v>
       </c>
       <c r="B149" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D149">
         <v>951.04</v>
       </c>
       <c r="F149" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -3713,13 +3722,13 @@
         <v>18</v>
       </c>
       <c r="B150" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D150">
         <v>1342.33</v>
       </c>
       <c r="F150" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -3727,13 +3736,13 @@
         <v>18</v>
       </c>
       <c r="B151" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D151">
         <v>1167.37</v>
       </c>
       <c r="F151" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -3741,13 +3750,13 @@
         <v>18</v>
       </c>
       <c r="B152" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D152">
         <v>1417.96</v>
       </c>
       <c r="F152" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -3755,13 +3764,13 @@
         <v>18</v>
       </c>
       <c r="B153" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D153">
         <v>1684.84</v>
       </c>
       <c r="F153" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -3769,13 +3778,162 @@
         <v>18</v>
       </c>
       <c r="B154" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D154">
         <v>1769.32</v>
       </c>
       <c r="F154" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155" t="s">
+        <v>19</v>
+      </c>
+      <c r="B155" t="s">
+        <v>62</v>
+      </c>
+      <c r="D155">
+        <v>1036.08</v>
+      </c>
+      <c r="F155" t="s">
+        <v>72</v>
+      </c>
+      <c r="G155">
+        <v>0.78</v>
+      </c>
+      <c r="H155">
+        <v>47.55</v>
+      </c>
+      <c r="I155">
+        <v>879.9299999999999</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156" t="s">
+        <v>19</v>
+      </c>
+      <c r="B156" t="s">
+        <v>63</v>
+      </c>
+      <c r="D156">
+        <v>933.52</v>
+      </c>
+      <c r="F156" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157" t="s">
+        <v>19</v>
+      </c>
+      <c r="B157" t="s">
+        <v>64</v>
+      </c>
+      <c r="D157">
+        <v>943.3200000000001</v>
+      </c>
+      <c r="F157" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158" t="s">
+        <v>19</v>
+      </c>
+      <c r="B158" t="s">
+        <v>65</v>
+      </c>
+      <c r="D158">
+        <v>962.8099999999999</v>
+      </c>
+      <c r="F158" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159" t="s">
+        <v>19</v>
+      </c>
+      <c r="B159" t="s">
+        <v>66</v>
+      </c>
+      <c r="D159">
+        <v>884.72</v>
+      </c>
+      <c r="F159" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160" t="s">
+        <v>19</v>
+      </c>
+      <c r="B160" t="s">
+        <v>67</v>
+      </c>
+      <c r="D160">
+        <v>1224.31</v>
+      </c>
+      <c r="F160" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" t="s">
+        <v>19</v>
+      </c>
+      <c r="B161" t="s">
+        <v>68</v>
+      </c>
+      <c r="D161">
+        <v>1329.09</v>
+      </c>
+      <c r="F161" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" t="s">
+        <v>19</v>
+      </c>
+      <c r="B162" t="s">
         <v>69</v>
+      </c>
+      <c r="D162">
+        <v>1381.25</v>
+      </c>
+      <c r="F162" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" t="s">
+        <v>19</v>
+      </c>
+      <c r="B163" t="s">
+        <v>70</v>
+      </c>
+      <c r="D163">
+        <v>1416.68</v>
+      </c>
+      <c r="F163" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" t="s">
+        <v>19</v>
+      </c>
+      <c r="B164" t="s">
+        <v>71</v>
+      </c>
+      <c r="D164">
+        <v>1456.69</v>
+      </c>
+      <c r="F164" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
